--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19870</v>
+        <v>19134</v>
       </c>
       <c r="C2" t="n">
-        <v>5332</v>
+        <v>5316</v>
       </c>
       <c r="D2" t="n">
-        <v>8471</v>
+        <v>7998</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5505</v>
+        <v>4504</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15575</v>
+        <v>15298</v>
       </c>
       <c r="I2" t="n">
-        <v>18592</v>
+        <v>13969</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19251</v>
+        <v>18706</v>
       </c>
       <c r="C3" t="n">
-        <v>5044</v>
+        <v>5156</v>
       </c>
       <c r="D3" t="n">
-        <v>8241</v>
+        <v>7676</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5244</v>
+        <v>4420</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14564</v>
+        <v>14860</v>
       </c>
       <c r="I3" t="n">
-        <v>17937</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18379</v>
+        <v>18131</v>
       </c>
       <c r="C4" t="n">
-        <v>4831</v>
+        <v>4909</v>
       </c>
       <c r="D4" t="n">
-        <v>8027</v>
+        <v>7485</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5086</v>
+        <v>4389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14080</v>
+        <v>14337</v>
       </c>
       <c r="I4" t="n">
-        <v>17312</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17761</v>
+        <v>17672</v>
       </c>
       <c r="C5" t="n">
-        <v>4779</v>
+        <v>4696</v>
       </c>
       <c r="D5" t="n">
-        <v>7857</v>
+        <v>7456</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4886</v>
+        <v>4142</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13775</v>
+        <v>13961</v>
       </c>
       <c r="I5" t="n">
-        <v>16933</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18621</v>
+        <v>18383</v>
       </c>
       <c r="C6" t="n">
-        <v>4847</v>
+        <v>4909</v>
       </c>
       <c r="D6" t="n">
-        <v>7901</v>
+        <v>7494</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4985</v>
+        <v>4390</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13928</v>
+        <v>14821</v>
       </c>
       <c r="I6" t="n">
-        <v>17279</v>
+        <v>12961</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19294</v>
+        <v>18801</v>
       </c>
       <c r="C7" t="n">
-        <v>5137</v>
+        <v>5196</v>
       </c>
       <c r="D7" t="n">
-        <v>8405</v>
+        <v>8077</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6051</v>
+        <v>4709</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14478</v>
+        <v>14875</v>
       </c>
       <c r="I7" t="n">
-        <v>17927</v>
+        <v>13615</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18476</v>
+        <v>18262</v>
       </c>
       <c r="C8" t="n">
-        <v>4435</v>
+        <v>4446</v>
       </c>
       <c r="D8" t="n">
-        <v>8568</v>
+        <v>8243</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6390</v>
+        <v>5226</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13885</v>
+        <v>14382</v>
       </c>
       <c r="I8" t="n">
-        <v>17833</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20953</v>
+        <v>20495</v>
       </c>
       <c r="C9" t="n">
-        <v>4685</v>
+        <v>4614</v>
       </c>
       <c r="D9" t="n">
-        <v>10062</v>
+        <v>10001</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9706</v>
+        <v>9815</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15695</v>
+        <v>1554</v>
       </c>
       <c r="I9" t="n">
-        <v>19553</v>
+        <v>16079</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26312</v>
+        <v>26122</v>
       </c>
       <c r="C10" t="n">
-        <v>5533</v>
+        <v>5247</v>
       </c>
       <c r="D10" t="n">
-        <v>12443</v>
+        <v>12166</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13072</v>
+        <v>12315</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18105</v>
+        <v>18138</v>
       </c>
       <c r="I10" t="n">
-        <v>22065</v>
+        <v>18337</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28890</v>
+        <v>28816</v>
       </c>
       <c r="C11" t="n">
-        <v>5559</v>
+        <v>5644</v>
       </c>
       <c r="D11" t="n">
-        <v>17299</v>
+        <v>17198</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14193</v>
+        <v>13705</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18881</v>
+        <v>18648</v>
       </c>
       <c r="I11" t="n">
-        <v>23970</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30120</v>
+        <v>28938</v>
       </c>
       <c r="C12" t="n">
-        <v>5882</v>
+        <v>5680</v>
       </c>
       <c r="D12" t="n">
-        <v>18404</v>
+        <v>18193</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14519</v>
+        <v>13839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>19069</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24681</v>
+        <v>20779</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30253</v>
+        <v>29327</v>
       </c>
       <c r="C13" t="n">
-        <v>6116</v>
+        <v>5893</v>
       </c>
       <c r="D13" t="n">
-        <v>18377</v>
+        <v>18581</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14776</v>
+        <v>13866</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19613</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25656</v>
+        <v>21097</v>
       </c>
     </row>
     <row r="14">
@@ -821,146 +821,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30370</v>
+        <v>30698</v>
       </c>
       <c r="C14" t="n">
-        <v>6071</v>
+        <v>5882</v>
       </c>
       <c r="D14" t="n">
-        <v>18631</v>
+        <v>18664</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14920</v>
+        <v>14184</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>19686</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>24815</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>31017</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6255</v>
-      </c>
-      <c r="D15" t="n">
-        <v>18959</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15390</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19875</v>
-      </c>
-      <c r="I15" t="n">
-        <v>25940</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>31302</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6180</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18824</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15256</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19586</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25416</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>29275</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5863</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18282</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19120</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24683</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5606</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17774</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11060</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19134</v>
+        <v>19192</v>
       </c>
       <c r="C2" t="n">
-        <v>5316</v>
+        <v>5435</v>
       </c>
       <c r="D2" t="n">
-        <v>7998</v>
+        <v>8520</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4504</v>
+        <v>5088</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15298</v>
+        <v>15274</v>
       </c>
       <c r="I2" t="n">
-        <v>13969</v>
+        <v>14868</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18706</v>
+        <v>18619</v>
       </c>
       <c r="C3" t="n">
-        <v>5156</v>
+        <v>5008</v>
       </c>
       <c r="D3" t="n">
-        <v>7676</v>
+        <v>8260</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4420</v>
+        <v>4996</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14860</v>
+        <v>14694</v>
       </c>
       <c r="I3" t="n">
-        <v>13491</v>
+        <v>14177</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18131</v>
+        <v>17969</v>
       </c>
       <c r="C4" t="n">
-        <v>4909</v>
+        <v>4808</v>
       </c>
       <c r="D4" t="n">
-        <v>7485</v>
+        <v>8031</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4389</v>
+        <v>4678</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14337</v>
+        <v>14159</v>
       </c>
       <c r="I4" t="n">
-        <v>12898</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17672</v>
+        <v>17223</v>
       </c>
       <c r="C5" t="n">
-        <v>4696</v>
+        <v>4700</v>
       </c>
       <c r="D5" t="n">
-        <v>7456</v>
+        <v>7899</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4142</v>
+        <v>4771</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13961</v>
+        <v>13738</v>
       </c>
       <c r="I5" t="n">
-        <v>12730</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18383</v>
+        <v>17898</v>
       </c>
       <c r="C6" t="n">
-        <v>4909</v>
+        <v>4889</v>
       </c>
       <c r="D6" t="n">
-        <v>7494</v>
+        <v>8098</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4390</v>
+        <v>4917</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14821</v>
+        <v>13890</v>
       </c>
       <c r="I6" t="n">
-        <v>12961</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18801</v>
+        <v>18664</v>
       </c>
       <c r="C7" t="n">
-        <v>5196</v>
+        <v>5231</v>
       </c>
       <c r="D7" t="n">
-        <v>8077</v>
+        <v>8714</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4709</v>
+        <v>5123</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14875</v>
+        <v>14547</v>
       </c>
       <c r="I7" t="n">
-        <v>13615</v>
+        <v>14642</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18262</v>
+        <v>18237</v>
       </c>
       <c r="C8" t="n">
-        <v>4446</v>
+        <v>4552</v>
       </c>
       <c r="D8" t="n">
-        <v>8243</v>
+        <v>8627</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5226</v>
+        <v>5517</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14382</v>
+        <v>14033</v>
       </c>
       <c r="I8" t="n">
-        <v>13660</v>
+        <v>14593</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20495</v>
+        <v>21576</v>
       </c>
       <c r="C9" t="n">
-        <v>4614</v>
+        <v>4438</v>
       </c>
       <c r="D9" t="n">
-        <v>10001</v>
+        <v>9964</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9815</v>
+        <v>9197</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1554</v>
+        <v>15693</v>
       </c>
       <c r="I9" t="n">
-        <v>16079</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26122</v>
+        <v>26902</v>
       </c>
       <c r="C10" t="n">
-        <v>5247</v>
+        <v>5153</v>
       </c>
       <c r="D10" t="n">
-        <v>12166</v>
+        <v>12410</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12315</v>
+        <v>12608</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18138</v>
+        <v>18857</v>
       </c>
       <c r="I10" t="n">
-        <v>18337</v>
+        <v>18423</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28816</v>
+        <v>27846</v>
       </c>
       <c r="C11" t="n">
-        <v>5644</v>
+        <v>5591</v>
       </c>
       <c r="D11" t="n">
-        <v>17198</v>
+        <v>17153</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13705</v>
+        <v>13638</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18648</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20178</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28938</v>
+        <v>28721</v>
       </c>
       <c r="C12" t="n">
-        <v>5680</v>
+        <v>5830</v>
       </c>
       <c r="D12" t="n">
-        <v>18193</v>
+        <v>18641</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>13839</v>
+        <v>13864</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>17260</v>
       </c>
       <c r="I12" t="n">
-        <v>20779</v>
+        <v>21035</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29327</v>
+        <v>28957</v>
       </c>
       <c r="C13" t="n">
-        <v>5893</v>
+        <v>5853</v>
       </c>
       <c r="D13" t="n">
-        <v>18581</v>
+        <v>18818</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13866</v>
+        <v>14028</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>17640</v>
       </c>
       <c r="I13" t="n">
-        <v>21097</v>
+        <v>21320</v>
       </c>
     </row>
     <row r="14">
@@ -821,25 +821,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30698</v>
+        <v>27430</v>
       </c>
       <c r="C14" t="n">
-        <v>5882</v>
+        <v>5862</v>
       </c>
       <c r="D14" t="n">
-        <v>18664</v>
+        <v>19220</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14184</v>
+        <v>14041</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>17840</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>18999</v>
       </c>
       <c r="I11" t="n">
         <v>20468</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17260</v>
+        <v>19289</v>
       </c>
       <c r="I12" t="n">
         <v>21035</v>
@@ -842,7 +842,7 @@
         <v>17840</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>21572</v>
       </c>
     </row>
     <row r="15"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>17640</v>
+        <v>19730</v>
       </c>
       <c r="I13" t="n">
         <v>21320</v>
@@ -839,15 +839,99 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17840</v>
+        <v>19881</v>
       </c>
       <c r="I14" t="n">
         <v>21572</v>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19547</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14601</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20973</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22230</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19436</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14422</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20862</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>18881</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14102</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19536</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21365</v>
+      </c>
+    </row>
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19192</v>
+        <v>20597</v>
       </c>
       <c r="C2" t="n">
-        <v>5435</v>
+        <v>5690</v>
       </c>
       <c r="D2" t="n">
-        <v>8520</v>
+        <v>8987</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5088</v>
+        <v>5429</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15274</v>
+        <v>16222</v>
       </c>
       <c r="I2" t="n">
-        <v>14868</v>
+        <v>15627</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18619</v>
+        <v>19916</v>
       </c>
       <c r="C3" t="n">
-        <v>5008</v>
+        <v>5402</v>
       </c>
       <c r="D3" t="n">
-        <v>8260</v>
+        <v>8583</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4996</v>
+        <v>5307</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14694</v>
+        <v>15254</v>
       </c>
       <c r="I3" t="n">
-        <v>14177</v>
+        <v>15026</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17969</v>
+        <v>18925</v>
       </c>
       <c r="C4" t="n">
-        <v>4808</v>
+        <v>5170</v>
       </c>
       <c r="D4" t="n">
-        <v>8031</v>
+        <v>8398</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4678</v>
+        <v>5012</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14159</v>
+        <v>14517</v>
       </c>
       <c r="I4" t="n">
-        <v>13807</v>
+        <v>14624</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17223</v>
+        <v>18415</v>
       </c>
       <c r="C5" t="n">
-        <v>4700</v>
+        <v>4995</v>
       </c>
       <c r="D5" t="n">
-        <v>7899</v>
+        <v>8177</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4771</v>
+        <v>4854</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13738</v>
+        <v>14307</v>
       </c>
       <c r="I5" t="n">
-        <v>13447</v>
+        <v>14147</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17898</v>
+        <v>18771</v>
       </c>
       <c r="C6" t="n">
-        <v>4889</v>
+        <v>5037</v>
       </c>
       <c r="D6" t="n">
-        <v>8098</v>
+        <v>8289</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4917</v>
+        <v>4964</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13890</v>
+        <v>14389</v>
       </c>
       <c r="I6" t="n">
-        <v>14009</v>
+        <v>14418</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18664</v>
+        <v>19228</v>
       </c>
       <c r="C7" t="n">
-        <v>5231</v>
+        <v>5381</v>
       </c>
       <c r="D7" t="n">
-        <v>8714</v>
+        <v>8589</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5123</v>
+        <v>5663</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14547</v>
+        <v>15244</v>
       </c>
       <c r="I7" t="n">
-        <v>14642</v>
+        <v>14919</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18237</v>
+        <v>18579</v>
       </c>
       <c r="C8" t="n">
-        <v>4552</v>
+        <v>4599</v>
       </c>
       <c r="D8" t="n">
-        <v>8627</v>
+        <v>9980</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5517</v>
+        <v>5706</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14033</v>
+        <v>14677</v>
       </c>
       <c r="I8" t="n">
-        <v>14593</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21576</v>
+        <v>23705</v>
       </c>
       <c r="C9" t="n">
-        <v>4438</v>
+        <v>4854</v>
       </c>
       <c r="D9" t="n">
-        <v>9964</v>
+        <v>9598</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9197</v>
+        <v>10904</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15693</v>
+        <v>17582</v>
       </c>
       <c r="I9" t="n">
-        <v>16434</v>
+        <v>16778</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26902</v>
+        <v>27021</v>
       </c>
       <c r="C10" t="n">
-        <v>5153</v>
+        <v>5601</v>
       </c>
       <c r="D10" t="n">
-        <v>12410</v>
+        <v>12483</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12608</v>
+        <v>14110</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18857</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18423</v>
+        <v>19191</v>
       </c>
     </row>
     <row r="11">
@@ -734,204 +734,36 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27846</v>
+        <v>29627</v>
       </c>
       <c r="C11" t="n">
-        <v>5591</v>
+        <v>6117</v>
       </c>
       <c r="D11" t="n">
-        <v>17153</v>
+        <v>17812</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13638</v>
+        <v>14430</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>28721</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5830</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18641</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>13864</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19289</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21035</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>28957</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5853</v>
-      </c>
-      <c r="D13" t="n">
-        <v>18818</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14028</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19730</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21320</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>27430</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5862</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19220</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14041</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19881</v>
-      </c>
-      <c r="I14" t="n">
-        <v>21572</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6227</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19547</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14601</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>20973</v>
-      </c>
-      <c r="I15" t="n">
-        <v>22230</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6249</v>
-      </c>
-      <c r="D16" t="n">
-        <v>19436</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14422</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20862</v>
-      </c>
-      <c r="I16" t="n">
-        <v>22243</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5989</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18881</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14102</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19536</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21365</v>
-      </c>
-    </row>
+        <v>20838</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -717,25 +717,221 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>12431</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>19915</v>
       </c>
       <c r="I10" t="n">
         <v>20628</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30372</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6154</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18275</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14529</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20673</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31874</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6516</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20238</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14753</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21065</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33389</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20202</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14847</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20968</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31218</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19485</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15043</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21774</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21306</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33889</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6571</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19779</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15533</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22469</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33581</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6336</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19788</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15201</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21540</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33123</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6367</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19460</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15620</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21875</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22719</v>
+      </c>
+    </row>
     <row r="18"/>
     <row r="19"/>
     <row r="20"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22060</v>
+        <v>20388</v>
       </c>
       <c r="C2" t="n">
-        <v>6063</v>
+        <v>5437</v>
       </c>
       <c r="D2" t="n">
-        <v>9842</v>
+        <v>9251</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5734</v>
+        <v>5517</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17979</v>
+        <v>16344</v>
       </c>
       <c r="I2" t="n">
-        <v>16944</v>
+        <v>15814</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21151</v>
+        <v>19536</v>
       </c>
       <c r="C3" t="n">
-        <v>5712</v>
+        <v>5191</v>
       </c>
       <c r="D3" t="n">
-        <v>9409</v>
+        <v>8990</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5549</v>
+        <v>5420</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17214</v>
+        <v>15792</v>
       </c>
       <c r="I3" t="n">
-        <v>16164</v>
+        <v>15053</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20342</v>
+        <v>18934</v>
       </c>
       <c r="C4" t="n">
-        <v>5485</v>
+        <v>5030</v>
       </c>
       <c r="D4" t="n">
-        <v>9148</v>
+        <v>8623</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5363</v>
+        <v>5245</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14058</v>
+        <v>15027</v>
       </c>
       <c r="I4" t="n">
-        <v>15424</v>
+        <v>14490</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19725</v>
+        <v>18205</v>
       </c>
       <c r="C5" t="n">
-        <v>5175</v>
+        <v>4781</v>
       </c>
       <c r="D5" t="n">
-        <v>8877</v>
+        <v>8421</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5217</v>
+        <v>5105</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15883</v>
+        <v>14499</v>
       </c>
       <c r="I5" t="n">
-        <v>14832</v>
+        <v>14111</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19604</v>
+        <v>18620</v>
       </c>
       <c r="C6" t="n">
-        <v>5284</v>
+        <v>4922</v>
       </c>
       <c r="D6" t="n">
-        <v>8705</v>
+        <v>8488</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5424</v>
+        <v>5330</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15163</v>
+        <v>14721</v>
       </c>
       <c r="I6" t="n">
-        <v>14968</v>
+        <v>14229</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19818</v>
+        <v>19337</v>
       </c>
       <c r="C7" t="n">
-        <v>5342</v>
+        <v>5120</v>
       </c>
       <c r="D7" t="n">
-        <v>9157</v>
+        <v>8768</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5658</v>
+        <v>5598</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15700</v>
+        <v>15260</v>
       </c>
       <c r="I7" t="n">
-        <v>15351</v>
+        <v>14801</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19108</v>
+        <v>18861</v>
       </c>
       <c r="C8" t="n">
-        <v>4547</v>
+        <v>4438</v>
       </c>
       <c r="D8" t="n">
-        <v>9238</v>
+        <v>9281</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5986</v>
+        <v>5978</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15087</v>
+        <v>15014</v>
       </c>
       <c r="I8" t="n">
-        <v>15403</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22031</v>
+        <v>22439</v>
       </c>
       <c r="C9" t="n">
-        <v>4781</v>
+        <v>4680</v>
       </c>
       <c r="D9" t="n">
-        <v>10950</v>
+        <v>11127</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9539</v>
+        <v>10362</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>18194</v>
       </c>
       <c r="I9" t="n">
-        <v>17943</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28392</v>
+        <v>28077</v>
       </c>
       <c r="C10" t="n">
-        <v>5660</v>
+        <v>5520</v>
       </c>
       <c r="D10" t="n">
-        <v>13268</v>
+        <v>13693</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12431</v>
+        <v>13091</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19915</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>20628</v>
+        <v>20240</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30372</v>
+        <v>30548</v>
       </c>
       <c r="C11" t="n">
-        <v>6154</v>
+        <v>5903</v>
       </c>
       <c r="D11" t="n">
-        <v>18275</v>
+        <v>18005</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14529</v>
+        <v>15334</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20673</v>
+        <v>20685</v>
       </c>
       <c r="I11" t="n">
-        <v>20132</v>
+        <v>22306</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31874</v>
+        <v>31190</v>
       </c>
       <c r="C12" t="n">
-        <v>6516</v>
+        <v>6074</v>
       </c>
       <c r="D12" t="n">
-        <v>20238</v>
+        <v>19044</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14753</v>
+        <v>20591</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21065</v>
+        <v>21206</v>
       </c>
       <c r="I12" t="n">
-        <v>23064</v>
+        <v>23108</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33389</v>
+        <v>31697</v>
       </c>
       <c r="C13" t="n">
-        <v>6638</v>
+        <v>6100</v>
       </c>
       <c r="D13" t="n">
-        <v>20202</v>
+        <v>19618</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14847</v>
+        <v>15079</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20968</v>
+        <v>21480</v>
       </c>
       <c r="I13" t="n">
-        <v>23263</v>
+        <v>23350</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>31218</v>
+        <v>32010</v>
       </c>
       <c r="C14" t="n">
-        <v>5946</v>
+        <v>6030</v>
       </c>
       <c r="D14" t="n">
-        <v>19485</v>
+        <v>19420</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15043</v>
+        <v>15325</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21774</v>
+        <v>22085</v>
       </c>
       <c r="I14" t="n">
-        <v>21306</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33889</v>
+        <v>33536</v>
       </c>
       <c r="C15" t="n">
-        <v>6571</v>
+        <v>6597</v>
       </c>
       <c r="D15" t="n">
-        <v>19779</v>
+        <v>20025</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15533</v>
+        <v>15787</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22469</v>
+        <v>22762</v>
       </c>
       <c r="I15" t="n">
-        <v>23121</v>
+        <v>23776</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33581</v>
+        <v>33348</v>
       </c>
       <c r="C16" t="n">
-        <v>6336</v>
+        <v>6646</v>
       </c>
       <c r="D16" t="n">
-        <v>19788</v>
+        <v>19857</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15201</v>
+        <v>15874</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21540</v>
+        <v>22534</v>
       </c>
       <c r="I16" t="n">
-        <v>22191</v>
+        <v>23711</v>
       </c>
     </row>
     <row r="17">
@@ -908,31 +908,59 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33123</v>
+        <v>32699</v>
       </c>
       <c r="C17" t="n">
-        <v>6367</v>
+        <v>6609</v>
       </c>
       <c r="D17" t="n">
-        <v>19460</v>
+        <v>19085</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>15620</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>21875</v>
+        <v>22053</v>
       </c>
       <c r="I17" t="n">
-        <v>22719</v>
-      </c>
-    </row>
-    <row r="18"/>
+        <v>23450</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18802</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20388</v>
+        <v>22266</v>
       </c>
       <c r="C2" t="n">
-        <v>5437</v>
+        <v>5999</v>
       </c>
       <c r="D2" t="n">
-        <v>9251</v>
+        <v>9984</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5517</v>
+        <v>6030</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16344</v>
+        <v>17786</v>
       </c>
       <c r="I2" t="n">
-        <v>15814</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19536</v>
+        <v>21326</v>
       </c>
       <c r="C3" t="n">
-        <v>5191</v>
+        <v>5717</v>
       </c>
       <c r="D3" t="n">
-        <v>8990</v>
+        <v>9532</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5420</v>
+        <v>5923</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15792</v>
+        <v>17126</v>
       </c>
       <c r="I3" t="n">
-        <v>15053</v>
+        <v>16079</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18934</v>
+        <v>20449</v>
       </c>
       <c r="C4" t="n">
-        <v>5030</v>
+        <v>5454</v>
       </c>
       <c r="D4" t="n">
-        <v>8623</v>
+        <v>9230</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5245</v>
+        <v>5604</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15027</v>
+        <v>16410</v>
       </c>
       <c r="I4" t="n">
-        <v>14490</v>
+        <v>15490</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18205</v>
+        <v>19762</v>
       </c>
       <c r="C5" t="n">
-        <v>4781</v>
+        <v>5204</v>
       </c>
       <c r="D5" t="n">
-        <v>8421</v>
+        <v>8913</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5105</v>
+        <v>5557</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14499</v>
+        <v>15487</v>
       </c>
       <c r="I5" t="n">
-        <v>14111</v>
+        <v>15148</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18620</v>
+        <v>19910</v>
       </c>
       <c r="C6" t="n">
-        <v>4922</v>
+        <v>5266</v>
       </c>
       <c r="D6" t="n">
-        <v>8488</v>
+        <v>8941</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5330</v>
+        <v>5670</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14721</v>
+        <v>15633</v>
       </c>
       <c r="I6" t="n">
-        <v>14229</v>
+        <v>15424</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19337</v>
+        <v>19707</v>
       </c>
       <c r="C7" t="n">
-        <v>5120</v>
+        <v>5468</v>
       </c>
       <c r="D7" t="n">
-        <v>8768</v>
+        <v>9267</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5598</v>
+        <v>7157</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15260</v>
+        <v>16091</v>
       </c>
       <c r="I7" t="n">
-        <v>14801</v>
+        <v>15868</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18861</v>
+        <v>20268</v>
       </c>
       <c r="C8" t="n">
-        <v>4438</v>
+        <v>4604</v>
       </c>
       <c r="D8" t="n">
-        <v>9281</v>
+        <v>9666</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5978</v>
+        <v>7401</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15014</v>
+        <v>15557</v>
       </c>
       <c r="I8" t="n">
-        <v>15400</v>
+        <v>16013</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22439</v>
+        <v>23185</v>
       </c>
       <c r="C9" t="n">
-        <v>4680</v>
+        <v>4901</v>
       </c>
       <c r="D9" t="n">
-        <v>11127</v>
+        <v>11223</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10362</v>
+        <v>10623</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18194</v>
+        <v>18375</v>
       </c>
       <c r="I9" t="n">
-        <v>17374</v>
+        <v>18064</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28077</v>
+        <v>28823</v>
       </c>
       <c r="C10" t="n">
-        <v>5520</v>
+        <v>5818</v>
       </c>
       <c r="D10" t="n">
-        <v>13693</v>
+        <v>13930</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13091</v>
+        <v>14092</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>20118</v>
       </c>
       <c r="I10" t="n">
-        <v>20240</v>
+        <v>21041</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30548</v>
+        <v>32025</v>
       </c>
       <c r="C11" t="n">
-        <v>5903</v>
+        <v>6084</v>
       </c>
       <c r="D11" t="n">
-        <v>18005</v>
+        <v>18165</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15334</v>
+        <v>15134</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20685</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22306</v>
+        <v>22980</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31190</v>
+        <v>32138</v>
       </c>
       <c r="C12" t="n">
-        <v>6074</v>
+        <v>6317</v>
       </c>
       <c r="D12" t="n">
-        <v>19044</v>
+        <v>19577</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>20591</v>
+        <v>15265</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21206</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23108</v>
+        <v>23801</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31697</v>
+        <v>31865</v>
       </c>
       <c r="C13" t="n">
-        <v>6100</v>
+        <v>6389</v>
       </c>
       <c r="D13" t="n">
-        <v>19618</v>
+        <v>19812</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15079</v>
+        <v>15463</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21480</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23350</v>
+        <v>23781</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32010</v>
+        <v>32062</v>
       </c>
       <c r="C14" t="n">
-        <v>6030</v>
+        <v>6461</v>
       </c>
       <c r="D14" t="n">
-        <v>19420</v>
+        <v>19870</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15325</v>
+        <v>15114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22085</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23200</v>
+        <v>23508</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33536</v>
+        <v>33756</v>
       </c>
       <c r="C15" t="n">
-        <v>6597</v>
+        <v>6996</v>
       </c>
       <c r="D15" t="n">
-        <v>20025</v>
+        <v>20143</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15787</v>
+        <v>16097</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22762</v>
+        <v>22648</v>
       </c>
       <c r="I15" t="n">
-        <v>23776</v>
+        <v>24132</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33348</v>
+        <v>33340</v>
       </c>
       <c r="C16" t="n">
-        <v>6646</v>
+        <v>6897</v>
       </c>
       <c r="D16" t="n">
-        <v>19857</v>
+        <v>19871</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15874</v>
+        <v>15846</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22534</v>
+        <v>22412</v>
       </c>
       <c r="I16" t="n">
-        <v>23711</v>
+        <v>24607</v>
       </c>
     </row>
     <row r="17">
@@ -908,13 +908,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32699</v>
+        <v>33211</v>
       </c>
       <c r="C17" t="n">
-        <v>6609</v>
+        <v>6639</v>
       </c>
       <c r="D17" t="n">
-        <v>19085</v>
+        <v>20137</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22053</v>
+        <v>22106</v>
       </c>
       <c r="I17" t="n">
-        <v>23450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -937,13 +937,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>30925</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6519</v>
       </c>
       <c r="D18" t="n">
-        <v>18802</v>
+        <v>19370</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22266</v>
+        <v>23033</v>
       </c>
       <c r="C2" t="n">
-        <v>5999</v>
+        <v>6274</v>
       </c>
       <c r="D2" t="n">
-        <v>9984</v>
+        <v>10054</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6030</v>
+        <v>6183</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17786</v>
+        <v>18839</v>
       </c>
       <c r="I2" t="n">
-        <v>16906</v>
+        <v>17319</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21326</v>
+        <v>21712</v>
       </c>
       <c r="C3" t="n">
-        <v>5717</v>
+        <v>5994</v>
       </c>
       <c r="D3" t="n">
-        <v>9532</v>
+        <v>9503</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5923</v>
+        <v>5915</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17126</v>
+        <v>17552</v>
       </c>
       <c r="I3" t="n">
-        <v>16079</v>
+        <v>16512</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20449</v>
+        <v>20814</v>
       </c>
       <c r="C4" t="n">
-        <v>5454</v>
+        <v>5590</v>
       </c>
       <c r="D4" t="n">
-        <v>9230</v>
+        <v>9166</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5604</v>
+        <v>5734</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16410</v>
+        <v>16805</v>
       </c>
       <c r="I4" t="n">
-        <v>15490</v>
+        <v>15786</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19762</v>
+        <v>19954</v>
       </c>
       <c r="C5" t="n">
-        <v>5204</v>
+        <v>5464</v>
       </c>
       <c r="D5" t="n">
-        <v>8913</v>
+        <v>8943</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5557</v>
+        <v>5523</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15487</v>
+        <v>16168</v>
       </c>
       <c r="I5" t="n">
-        <v>15148</v>
+        <v>15388</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19910</v>
+        <v>19807</v>
       </c>
       <c r="C6" t="n">
-        <v>5266</v>
+        <v>5692</v>
       </c>
       <c r="D6" t="n">
-        <v>8941</v>
+        <v>8907</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5670</v>
+        <v>5665</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15633</v>
+        <v>15959</v>
       </c>
       <c r="I6" t="n">
-        <v>15424</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19707</v>
+        <v>20155</v>
       </c>
       <c r="C7" t="n">
-        <v>5468</v>
+        <v>5509</v>
       </c>
       <c r="D7" t="n">
-        <v>9267</v>
+        <v>9246</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7157</v>
+        <v>6828</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16091</v>
+        <v>16221</v>
       </c>
       <c r="I7" t="n">
-        <v>15868</v>
+        <v>16119</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20268</v>
+        <v>19705</v>
       </c>
       <c r="C8" t="n">
-        <v>4604</v>
+        <v>4796</v>
       </c>
       <c r="D8" t="n">
-        <v>9666</v>
+        <v>9529</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7401</v>
+        <v>7371</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15557</v>
+        <v>15808</v>
       </c>
       <c r="I8" t="n">
-        <v>16013</v>
+        <v>15876</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23185</v>
+        <v>22101</v>
       </c>
       <c r="C9" t="n">
-        <v>4901</v>
+        <v>5092</v>
       </c>
       <c r="D9" t="n">
-        <v>11223</v>
+        <v>11026</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10623</v>
+        <v>10050</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18375</v>
+        <v>19300</v>
       </c>
       <c r="I9" t="n">
-        <v>18064</v>
+        <v>18309</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28823</v>
+        <v>28407</v>
       </c>
       <c r="C10" t="n">
-        <v>5818</v>
+        <v>6030</v>
       </c>
       <c r="D10" t="n">
-        <v>13930</v>
+        <v>14553</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14092</v>
+        <v>13491</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20118</v>
+        <v>19790</v>
       </c>
       <c r="I10" t="n">
-        <v>21041</v>
+        <v>21275</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32025</v>
+        <v>32081</v>
       </c>
       <c r="C11" t="n">
-        <v>6084</v>
+        <v>6261</v>
       </c>
       <c r="D11" t="n">
-        <v>18165</v>
+        <v>18994</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15134</v>
+        <v>15891</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>22479</v>
       </c>
       <c r="I11" t="n">
-        <v>22980</v>
+        <v>22926</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +763,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32138</v>
+        <v>32391</v>
       </c>
       <c r="C12" t="n">
-        <v>6317</v>
+        <v>6391</v>
       </c>
       <c r="D12" t="n">
-        <v>19577</v>
+        <v>19867</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15265</v>
+        <v>15600</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23801</v>
+        <v>23132</v>
       </c>
     </row>
     <row r="13">
@@ -792,19 +792,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31865</v>
+        <v>32738</v>
       </c>
       <c r="C13" t="n">
-        <v>6389</v>
+        <v>6600</v>
       </c>
       <c r="D13" t="n">
-        <v>19812</v>
+        <v>19800</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15463</v>
+        <v>15563</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23781</v>
+        <v>22805</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32062</v>
+        <v>32782</v>
       </c>
       <c r="C14" t="n">
-        <v>6461</v>
+        <v>6611</v>
       </c>
       <c r="D14" t="n">
-        <v>19870</v>
+        <v>20043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15114</v>
+        <v>15671</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>21815</v>
       </c>
       <c r="I14" t="n">
-        <v>23508</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33756</v>
+        <v>34755</v>
       </c>
       <c r="C15" t="n">
-        <v>6996</v>
+        <v>7019</v>
       </c>
       <c r="D15" t="n">
-        <v>20143</v>
+        <v>20276</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>16097</v>
+        <v>9173</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22648</v>
+        <v>20993</v>
       </c>
       <c r="I15" t="n">
-        <v>24132</v>
+        <v>19497</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33340</v>
+        <v>33505</v>
       </c>
       <c r="C16" t="n">
-        <v>6897</v>
+        <v>6898</v>
       </c>
       <c r="D16" t="n">
-        <v>19871</v>
+        <v>20085</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15846</v>
+        <v>15265</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22412</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24607</v>
+        <v>23640</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33211</v>
+        <v>32805</v>
       </c>
       <c r="C17" t="n">
-        <v>6639</v>
+        <v>6601</v>
       </c>
       <c r="D17" t="n">
-        <v>20137</v>
+        <v>19542</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>15968</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22106</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>23850</v>
       </c>
     </row>
     <row r="18">
@@ -937,13 +937,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>30925</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6519</v>
+        <v>6291</v>
       </c>
       <c r="D18" t="n">
-        <v>19370</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23033</v>
+        <v>21858</v>
       </c>
       <c r="C2" t="n">
-        <v>6274</v>
+        <v>6099</v>
       </c>
       <c r="D2" t="n">
-        <v>10054</v>
+        <v>9405</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6183</v>
+        <v>5511</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18839</v>
+        <v>17445</v>
       </c>
       <c r="I2" t="n">
-        <v>17319</v>
+        <v>16199</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21712</v>
+        <v>20650</v>
       </c>
       <c r="C3" t="n">
-        <v>5994</v>
+        <v>5790</v>
       </c>
       <c r="D3" t="n">
-        <v>9503</v>
+        <v>8861</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5915</v>
+        <v>5355</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17552</v>
+        <v>16596</v>
       </c>
       <c r="I3" t="n">
-        <v>16512</v>
+        <v>15572</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20814</v>
+        <v>20091</v>
       </c>
       <c r="C4" t="n">
-        <v>5590</v>
+        <v>5461</v>
       </c>
       <c r="D4" t="n">
-        <v>9166</v>
+        <v>8513</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5734</v>
+        <v>5096</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16805</v>
+        <v>16015</v>
       </c>
       <c r="I4" t="n">
-        <v>15786</v>
+        <v>14921</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19954</v>
+        <v>19462</v>
       </c>
       <c r="C5" t="n">
-        <v>5464</v>
+        <v>5277</v>
       </c>
       <c r="D5" t="n">
-        <v>8943</v>
+        <v>8325</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5523</v>
+        <v>4909</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16168</v>
+        <v>15360</v>
       </c>
       <c r="I5" t="n">
-        <v>15388</v>
+        <v>14477</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19807</v>
+        <v>18901</v>
       </c>
       <c r="C6" t="n">
-        <v>5692</v>
+        <v>5100</v>
       </c>
       <c r="D6" t="n">
-        <v>8907</v>
+        <v>8145</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5665</v>
+        <v>4865</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15959</v>
+        <v>19084</v>
       </c>
       <c r="I6" t="n">
-        <v>15507</v>
+        <v>14111</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20155</v>
+        <v>18356</v>
       </c>
       <c r="C7" t="n">
-        <v>5509</v>
+        <v>5000</v>
       </c>
       <c r="D7" t="n">
-        <v>9246</v>
+        <v>8059</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6828</v>
+        <v>4892</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16221</v>
+        <v>14555</v>
       </c>
       <c r="I7" t="n">
-        <v>16119</v>
+        <v>14053</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19705</v>
+        <v>15165</v>
       </c>
       <c r="C8" t="n">
-        <v>4796</v>
+        <v>6490</v>
       </c>
       <c r="D8" t="n">
-        <v>9529</v>
+        <v>8090</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7371</v>
+        <v>5884</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15808</v>
+        <v>14059</v>
       </c>
       <c r="I8" t="n">
-        <v>15876</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22101</v>
+        <v>16000</v>
       </c>
       <c r="C9" t="n">
-        <v>5092</v>
+        <v>6665</v>
       </c>
       <c r="D9" t="n">
-        <v>11026</v>
+        <v>8648</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10050</v>
+        <v>7253</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>19300</v>
+        <v>15028</v>
       </c>
       <c r="I9" t="n">
-        <v>18309</v>
+        <v>15352</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28407</v>
+        <v>17645</v>
       </c>
       <c r="C10" t="n">
-        <v>6030</v>
+        <v>6761</v>
       </c>
       <c r="D10" t="n">
-        <v>14553</v>
+        <v>9888</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13491</v>
+        <v>9161</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19790</v>
+        <v>14811</v>
       </c>
       <c r="I10" t="n">
-        <v>21275</v>
+        <v>15411</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32081</v>
+        <v>19657</v>
       </c>
       <c r="C11" t="n">
-        <v>6261</v>
+        <v>6926</v>
       </c>
       <c r="D11" t="n">
-        <v>18994</v>
+        <v>14693</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>15891</v>
+        <v>10432</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>22479</v>
+        <v>15744</v>
       </c>
       <c r="I11" t="n">
-        <v>22926</v>
+        <v>17525</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32391</v>
+        <v>20540</v>
       </c>
       <c r="C12" t="n">
-        <v>6391</v>
+        <v>7353</v>
       </c>
       <c r="D12" t="n">
-        <v>19867</v>
+        <v>16186</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15600</v>
+        <v>10658</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>16463</v>
       </c>
       <c r="I12" t="n">
-        <v>23132</v>
+        <v>18547</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32738</v>
+        <v>20616</v>
       </c>
       <c r="C13" t="n">
-        <v>6600</v>
+        <v>7496</v>
       </c>
       <c r="D13" t="n">
-        <v>19800</v>
+        <v>16907</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15563</v>
+        <v>11499</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16339</v>
       </c>
       <c r="I13" t="n">
-        <v>22805</v>
+        <v>18754</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32782</v>
+        <v>21208</v>
       </c>
       <c r="C14" t="n">
-        <v>6611</v>
+        <v>7608</v>
       </c>
       <c r="D14" t="n">
-        <v>20043</v>
+        <v>16542</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15671</v>
+        <v>10891</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21815</v>
+        <v>17566</v>
       </c>
       <c r="I14" t="n">
-        <v>24207</v>
+        <v>19783</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34755</v>
+        <v>25555</v>
       </c>
       <c r="C15" t="n">
-        <v>7019</v>
+        <v>6430</v>
       </c>
       <c r="D15" t="n">
-        <v>20276</v>
+        <v>16909</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>9173</v>
+        <v>11197</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20993</v>
+        <v>18329</v>
       </c>
       <c r="I15" t="n">
-        <v>19497</v>
+        <v>20365</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33505</v>
+        <v>26380</v>
       </c>
       <c r="C16" t="n">
-        <v>6898</v>
+        <v>5894</v>
       </c>
       <c r="D16" t="n">
-        <v>20085</v>
+        <v>17492</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15265</v>
+        <v>11253</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>19052</v>
       </c>
       <c r="I16" t="n">
-        <v>23640</v>
+        <v>20010</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32805</v>
+        <v>25264</v>
       </c>
       <c r="C17" t="n">
-        <v>6601</v>
+        <v>5604</v>
       </c>
       <c r="D17" t="n">
-        <v>19542</v>
+        <v>16707</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>15968</v>
+        <v>11205</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17358</v>
       </c>
       <c r="I17" t="n">
-        <v>23850</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="18">
@@ -937,36 +937,204 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>24779</v>
       </c>
       <c r="C18" t="n">
-        <v>6291</v>
+        <v>5436</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>16979</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>12290</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>17816</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
+        <v>19524</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24009</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5615</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16812</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11736</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>18047</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19318</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24812</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17007</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10447</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18641</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19085</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24020</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6398</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16626</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9573</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19018</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19270</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25195</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6942</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15289</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7644</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>19786</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19714</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24740</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7130</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13658</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6559</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22236.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10700</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6082</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21858</v>
+        <v>20907</v>
       </c>
       <c r="C2" t="n">
-        <v>6099</v>
+        <v>5839</v>
       </c>
       <c r="D2" t="n">
-        <v>9405</v>
+        <v>9492</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5511</v>
+        <v>5449</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>17445</v>
+        <v>16888</v>
       </c>
       <c r="I2" t="n">
-        <v>16199</v>
+        <v>16234</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20650</v>
+        <v>20210</v>
       </c>
       <c r="C3" t="n">
-        <v>5790</v>
+        <v>5480</v>
       </c>
       <c r="D3" t="n">
-        <v>8861</v>
+        <v>9221</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5355</v>
+        <v>5376</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16596</v>
+        <v>15991</v>
       </c>
       <c r="I3" t="n">
-        <v>15572</v>
+        <v>15594</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20091</v>
+        <v>19177</v>
       </c>
       <c r="C4" t="n">
-        <v>5461</v>
+        <v>5245</v>
       </c>
       <c r="D4" t="n">
-        <v>8513</v>
+        <v>8867</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5096</v>
+        <v>5192</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16015</v>
+        <v>15468</v>
       </c>
       <c r="I4" t="n">
-        <v>14921</v>
+        <v>14842</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19462</v>
+        <v>18484</v>
       </c>
       <c r="C5" t="n">
-        <v>5277</v>
+        <v>5013</v>
       </c>
       <c r="D5" t="n">
-        <v>8325</v>
+        <v>8625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4909</v>
+        <v>5123</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15360</v>
+        <v>14706</v>
       </c>
       <c r="I5" t="n">
-        <v>14477</v>
+        <v>14511</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18901</v>
+        <v>18697</v>
       </c>
       <c r="C6" t="n">
-        <v>5100</v>
+        <v>5154</v>
       </c>
       <c r="D6" t="n">
-        <v>8145</v>
+        <v>8692</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4865</v>
+        <v>5234</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>19084</v>
+        <v>14798</v>
       </c>
       <c r="I6" t="n">
-        <v>14111</v>
+        <v>14794</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18356</v>
+        <v>19243</v>
       </c>
       <c r="C7" t="n">
-        <v>5000</v>
+        <v>5220</v>
       </c>
       <c r="D7" t="n">
-        <v>8059</v>
+        <v>9127</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4892</v>
+        <v>6179</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14555</v>
+        <v>15109</v>
       </c>
       <c r="I7" t="n">
-        <v>14053</v>
+        <v>15059</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15165</v>
+        <v>18666</v>
       </c>
       <c r="C8" t="n">
-        <v>6490</v>
+        <v>4382</v>
       </c>
       <c r="D8" t="n">
-        <v>8090</v>
+        <v>9363</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5884</v>
+        <v>7021</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14059</v>
+        <v>15022</v>
       </c>
       <c r="I8" t="n">
-        <v>13842</v>
+        <v>15738</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16000</v>
+        <v>23347</v>
       </c>
       <c r="C9" t="n">
-        <v>6665</v>
+        <v>4761</v>
       </c>
       <c r="D9" t="n">
-        <v>8648</v>
+        <v>11090</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7253</v>
+        <v>10036</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15028</v>
+        <v>18443</v>
       </c>
       <c r="I9" t="n">
-        <v>15352</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17645</v>
+        <v>28043</v>
       </c>
       <c r="C10" t="n">
-        <v>6761</v>
+        <v>5796</v>
       </c>
       <c r="D10" t="n">
-        <v>9888</v>
+        <v>13736</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9161</v>
+        <v>13604</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14811</v>
+        <v>20769</v>
       </c>
       <c r="I10" t="n">
-        <v>15411</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19657</v>
+        <v>30538</v>
       </c>
       <c r="C11" t="n">
-        <v>6926</v>
+        <v>6049</v>
       </c>
       <c r="D11" t="n">
-        <v>14693</v>
+        <v>18839</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10432</v>
+        <v>14788</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>15744</v>
+        <v>20609</v>
       </c>
       <c r="I11" t="n">
-        <v>17525</v>
+        <v>22602</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20540</v>
+        <v>31861</v>
       </c>
       <c r="C12" t="n">
-        <v>7353</v>
+        <v>6290</v>
       </c>
       <c r="D12" t="n">
-        <v>16186</v>
+        <v>19940</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10658</v>
+        <v>15155</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>16463</v>
+        <v>21410</v>
       </c>
       <c r="I12" t="n">
-        <v>18547</v>
+        <v>23333</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20616</v>
+        <v>32092</v>
       </c>
       <c r="C13" t="n">
-        <v>7496</v>
+        <v>6456</v>
       </c>
       <c r="D13" t="n">
-        <v>16907</v>
+        <v>19717</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11499</v>
+        <v>14922</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16339</v>
+        <v>21678</v>
       </c>
       <c r="I13" t="n">
-        <v>18754</v>
+        <v>23281</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21208</v>
+        <v>32314</v>
       </c>
       <c r="C14" t="n">
-        <v>7608</v>
+        <v>6460</v>
       </c>
       <c r="D14" t="n">
-        <v>16542</v>
+        <v>19682</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10891</v>
+        <v>14955</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17566</v>
+        <v>21774</v>
       </c>
       <c r="I14" t="n">
-        <v>19783</v>
+        <v>22602</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25555</v>
+        <v>33791</v>
       </c>
       <c r="C15" t="n">
-        <v>6430</v>
+        <v>6915</v>
       </c>
       <c r="D15" t="n">
-        <v>16909</v>
+        <v>20452</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>11197</v>
+        <v>15451</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>18329</v>
+        <v>23049</v>
       </c>
       <c r="I15" t="n">
-        <v>20365</v>
+        <v>23474</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26380</v>
+        <v>34341</v>
       </c>
       <c r="C16" t="n">
-        <v>5894</v>
+        <v>6975</v>
       </c>
       <c r="D16" t="n">
-        <v>17492</v>
+        <v>20273</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11253</v>
+        <v>15663</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19052</v>
+        <v>23407</v>
       </c>
       <c r="I16" t="n">
-        <v>20010</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25264</v>
+        <v>33690</v>
       </c>
       <c r="C17" t="n">
-        <v>5604</v>
+        <v>6793</v>
       </c>
       <c r="D17" t="n">
-        <v>16707</v>
+        <v>19948</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11205</v>
+        <v>15841</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>17358</v>
+        <v>23193</v>
       </c>
       <c r="I17" t="n">
-        <v>19125</v>
+        <v>23978</v>
       </c>
     </row>
     <row r="18">
@@ -937,204 +937,36 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>24779</v>
+        <v>32059</v>
       </c>
       <c r="C18" t="n">
-        <v>5436</v>
+        <v>6460</v>
       </c>
       <c r="D18" t="n">
-        <v>16979</v>
+        <v>19536</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>12290</v>
+        <v>15662</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>17816</v>
+        <v>22073</v>
       </c>
       <c r="I18" t="n">
-        <v>19524</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24009</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5615</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16812</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11736</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>18047</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19318</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>24812</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17007</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10447</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>18641</v>
-      </c>
-      <c r="I20" t="n">
-        <v>19085</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>24020</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6398</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16626</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9573</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19018</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19270</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>25195</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6942</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15289</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7644</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>19786</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19714</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>24740</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7130</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13658</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6559</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18287</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22236.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10700</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6082</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>23928</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
     <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20907</v>
+        <v>22352</v>
       </c>
       <c r="C2" t="n">
-        <v>5839</v>
+        <v>6165</v>
       </c>
       <c r="D2" t="n">
-        <v>9492</v>
+        <v>9827</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5449</v>
+        <v>5789</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16888</v>
+        <v>18054</v>
       </c>
       <c r="I2" t="n">
-        <v>16234</v>
+        <v>17133</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20210</v>
+        <v>21201</v>
       </c>
       <c r="C3" t="n">
-        <v>5480</v>
+        <v>5946</v>
       </c>
       <c r="D3" t="n">
-        <v>9221</v>
+        <v>9407</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5376</v>
+        <v>5371</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15991</v>
+        <v>16963</v>
       </c>
       <c r="I3" t="n">
-        <v>15594</v>
+        <v>16183</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19177</v>
+        <v>20188</v>
       </c>
       <c r="C4" t="n">
-        <v>5245</v>
+        <v>5480</v>
       </c>
       <c r="D4" t="n">
-        <v>8867</v>
+        <v>9026</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5192</v>
+        <v>5342</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15468</v>
+        <v>16145</v>
       </c>
       <c r="I4" t="n">
-        <v>14842</v>
+        <v>15654</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18484</v>
+        <v>15677</v>
       </c>
       <c r="C5" t="n">
-        <v>5013</v>
+        <v>5456</v>
       </c>
       <c r="D5" t="n">
-        <v>8625</v>
+        <v>8822</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5123</v>
+        <v>5155</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14706</v>
+        <v>15524</v>
       </c>
       <c r="I5" t="n">
-        <v>14511</v>
+        <v>14849</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18697</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5154</v>
+        <v>5385</v>
       </c>
       <c r="D6" t="n">
-        <v>8692</v>
+        <v>8673</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5234</v>
+        <v>5326</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14798</v>
+        <v>15357</v>
       </c>
       <c r="I6" t="n">
-        <v>14794</v>
+        <v>14949</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19243</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5220</v>
+        <v>5027</v>
       </c>
       <c r="D7" t="n">
-        <v>9127</v>
+        <v>8523</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6179</v>
+        <v>5331</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15109</v>
+        <v>14517</v>
       </c>
       <c r="I7" t="n">
-        <v>15059</v>
+        <v>14378</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18666</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4382</v>
+        <v>4518</v>
       </c>
       <c r="D8" t="n">
-        <v>9363</v>
+        <v>8849</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7021</v>
+        <v>6242</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15022</v>
+        <v>14152</v>
       </c>
       <c r="I8" t="n">
-        <v>15738</v>
+        <v>14790</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23347</v>
+        <v>21431</v>
       </c>
       <c r="C9" t="n">
-        <v>4761</v>
+        <v>4708</v>
       </c>
       <c r="D9" t="n">
-        <v>11090</v>
+        <v>10701</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10036</v>
+        <v>8955</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>18443</v>
+        <v>16026</v>
       </c>
       <c r="I9" t="n">
-        <v>17374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28043</v>
+        <v>27266</v>
       </c>
       <c r="C10" t="n">
-        <v>5796</v>
+        <v>5712</v>
       </c>
       <c r="D10" t="n">
-        <v>13736</v>
+        <v>13884</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13604</v>
+        <v>12015</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20769</v>
+        <v>18800</v>
       </c>
       <c r="I10" t="n">
-        <v>20265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30538</v>
+        <v>29634</v>
       </c>
       <c r="C11" t="n">
-        <v>6049</v>
+        <v>6242</v>
       </c>
       <c r="D11" t="n">
-        <v>18839</v>
+        <v>18692</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14788</v>
+        <v>14472</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20609</v>
+        <v>15662</v>
       </c>
       <c r="I11" t="n">
-        <v>22602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31861</v>
+        <v>31974</v>
       </c>
       <c r="C12" t="n">
-        <v>6290</v>
+        <v>6408</v>
       </c>
       <c r="D12" t="n">
-        <v>19940</v>
+        <v>19503</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>15155</v>
+        <v>14676</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21410</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -792,175 +792,35 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32092</v>
+        <v>32151</v>
       </c>
       <c r="C13" t="n">
-        <v>6456</v>
+        <v>6512</v>
       </c>
       <c r="D13" t="n">
-        <v>19717</v>
+        <v>20130</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14922</v>
+        <v>15222</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23281</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>32314</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6460</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19682</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>14955</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21774</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22602</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>33791</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6915</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20452</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15451</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23049</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23474</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>34341</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6975</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20273</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15663</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23407</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24511</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>33690</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6793</v>
-      </c>
-      <c r="D17" t="n">
-        <v>19948</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15841</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>23193</v>
-      </c>
-      <c r="I17" t="n">
-        <v>23978</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>32059</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6460</v>
-      </c>
-      <c r="D18" t="n">
-        <v>19536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15662</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>22073</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23928</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15677</v>
+        <v>19356</v>
       </c>
       <c r="C5" t="n">
         <v>5456</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19575</v>
       </c>
       <c r="C6" t="n">
         <v>5385</v>
@@ -697,7 +697,7 @@
         <v>16026</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>16785</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
         <v>18800</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20012</v>
       </c>
     </row>
     <row r="11">
@@ -755,7 +755,7 @@
         <v>15662</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22182</v>
       </c>
     </row>
     <row r="12">
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21544</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22784</v>
       </c>
     </row>
     <row r="13">
@@ -810,17 +810,157 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21464</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
+        <v>23180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>32498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6611</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19770</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19912</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22035</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23250</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34483</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7104</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20167</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14904</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22352</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35244</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6931</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19964</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15724</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21076</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33699</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20050</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21603</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24659</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32234</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19327</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20660</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23498</v>
+      </c>
+    </row>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22352</v>
+        <v>20284</v>
       </c>
       <c r="C2" t="n">
-        <v>6165</v>
+        <v>5495</v>
       </c>
       <c r="D2" t="n">
-        <v>9827</v>
+        <v>8858</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5789</v>
+        <v>5765</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18054</v>
+        <v>16233</v>
       </c>
       <c r="I2" t="n">
-        <v>17133</v>
+        <v>18840</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21201</v>
+        <v>19327</v>
       </c>
       <c r="C3" t="n">
-        <v>5946</v>
+        <v>5326</v>
       </c>
       <c r="D3" t="n">
-        <v>9407</v>
+        <v>8579</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5371</v>
+        <v>5474</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16963</v>
+        <v>15525</v>
       </c>
       <c r="I3" t="n">
-        <v>16183</v>
+        <v>18044</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20188</v>
+        <v>18874</v>
       </c>
       <c r="C4" t="n">
-        <v>5480</v>
+        <v>5074</v>
       </c>
       <c r="D4" t="n">
-        <v>9026</v>
+        <v>8222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5342</v>
+        <v>5207</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16145</v>
+        <v>14915</v>
       </c>
       <c r="I4" t="n">
-        <v>15654</v>
+        <v>17246</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19356</v>
+        <v>18116</v>
       </c>
       <c r="C5" t="n">
-        <v>5456</v>
+        <v>4898</v>
       </c>
       <c r="D5" t="n">
-        <v>8822</v>
+        <v>8096</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5155</v>
+        <v>5122</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15524</v>
+        <v>14250</v>
       </c>
       <c r="I5" t="n">
-        <v>14849</v>
+        <v>16693</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19575</v>
+        <v>17627</v>
       </c>
       <c r="C6" t="n">
-        <v>5385</v>
+        <v>4776</v>
       </c>
       <c r="D6" t="n">
-        <v>8673</v>
+        <v>7886</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5326</v>
+        <v>5127</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15357</v>
+        <v>13758</v>
       </c>
       <c r="I6" t="n">
-        <v>14949</v>
+        <v>16379</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16811</v>
       </c>
       <c r="C7" t="n">
-        <v>5027</v>
+        <v>4689</v>
       </c>
       <c r="D7" t="n">
-        <v>8523</v>
+        <v>8073</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5331</v>
+        <v>4835</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14517</v>
+        <v>13050</v>
       </c>
       <c r="I7" t="n">
-        <v>14378</v>
+        <v>16006</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>16357</v>
       </c>
       <c r="C8" t="n">
-        <v>4518</v>
+        <v>4335</v>
       </c>
       <c r="D8" t="n">
-        <v>8849</v>
+        <v>7818</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6242</v>
+        <v>5775</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14152</v>
+        <v>12831</v>
       </c>
       <c r="I8" t="n">
-        <v>14790</v>
+        <v>15655</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21431</v>
+        <v>17026</v>
       </c>
       <c r="C9" t="n">
-        <v>4708</v>
+        <v>4359</v>
       </c>
       <c r="D9" t="n">
-        <v>10701</v>
+        <v>8307</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8955</v>
+        <v>6977</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16026</v>
+        <v>13632</v>
       </c>
       <c r="I9" t="n">
-        <v>16785</v>
+        <v>17084</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27266</v>
+        <v>18871</v>
       </c>
       <c r="C10" t="n">
-        <v>5712</v>
+        <v>4658</v>
       </c>
       <c r="D10" t="n">
-        <v>13884</v>
+        <v>9495</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12015</v>
+        <v>8340</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18800</v>
+        <v>13826</v>
       </c>
       <c r="I10" t="n">
-        <v>20012</v>
+        <v>17727</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29634</v>
+        <v>20240</v>
       </c>
       <c r="C11" t="n">
-        <v>6242</v>
+        <v>4854</v>
       </c>
       <c r="D11" t="n">
-        <v>18692</v>
+        <v>13611</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14472</v>
+        <v>10149</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>15662</v>
+        <v>14094</v>
       </c>
       <c r="I11" t="n">
-        <v>22182</v>
+        <v>20362</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31974</v>
+        <v>20713</v>
       </c>
       <c r="C12" t="n">
-        <v>6408</v>
+        <v>4751</v>
       </c>
       <c r="D12" t="n">
-        <v>19503</v>
+        <v>14520</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14676</v>
+        <v>10121</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21544</v>
+        <v>14588</v>
       </c>
       <c r="I12" t="n">
-        <v>22784</v>
+        <v>20070</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32151</v>
+        <v>21668</v>
       </c>
       <c r="C13" t="n">
-        <v>6512</v>
+        <v>4954</v>
       </c>
       <c r="D13" t="n">
-        <v>20130</v>
+        <v>15140</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15222</v>
+        <v>11124</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21464</v>
+        <v>15250</v>
       </c>
       <c r="I13" t="n">
-        <v>23180</v>
+        <v>19893</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32498</v>
+        <v>20482</v>
       </c>
       <c r="C14" t="n">
-        <v>6611</v>
+        <v>4716</v>
       </c>
       <c r="D14" t="n">
-        <v>19770</v>
+        <v>14899</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>19912</v>
+        <v>10394</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>22035</v>
+        <v>14223</v>
       </c>
       <c r="I14" t="n">
-        <v>23250</v>
+        <v>19594</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34483</v>
+        <v>21814</v>
       </c>
       <c r="C15" t="n">
-        <v>7104</v>
+        <v>4965</v>
       </c>
       <c r="D15" t="n">
-        <v>20167</v>
+        <v>15376</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14904</v>
+        <v>11188</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>22352</v>
+        <v>15034</v>
       </c>
       <c r="I15" t="n">
-        <v>24600</v>
+        <v>20182</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>35244</v>
+        <v>20751</v>
       </c>
       <c r="C16" t="n">
-        <v>6931</v>
+        <v>4727</v>
       </c>
       <c r="D16" t="n">
-        <v>19964</v>
+        <v>14894</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15724</v>
+        <v>10953</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21076</v>
+        <v>14665</v>
       </c>
       <c r="I16" t="n">
-        <v>24535</v>
+        <v>20031</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33699</v>
+        <v>20781</v>
       </c>
       <c r="C17" t="n">
-        <v>7172</v>
+        <v>4699</v>
       </c>
       <c r="D17" t="n">
-        <v>20050</v>
+        <v>14778</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>11073</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>21603</v>
+        <v>14488</v>
       </c>
       <c r="I17" t="n">
-        <v>24659</v>
+        <v>19735</v>
       </c>
     </row>
     <row r="18">
@@ -937,37 +937,233 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>32234</v>
+        <v>20696</v>
       </c>
       <c r="C18" t="n">
-        <v>6605</v>
+        <v>4535</v>
       </c>
       <c r="D18" t="n">
-        <v>19327</v>
+        <v>14703</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>10882</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>20660</v>
+        <v>14574</v>
       </c>
       <c r="I18" t="n">
-        <v>23498</v>
-      </c>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+        <v>19755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21587</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4971</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15038</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11174</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15454</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20780</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22888</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5435</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15277</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16235</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21761</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5437</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15044</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9007</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16059</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21578</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5639</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13939</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7190</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15859</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19975</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5628</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11521</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6350</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15508</v>
+      </c>
+      <c r="I23" t="n">
+        <v>19320</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19706</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5478</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8880</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5808</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15550</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18557</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5302</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14863</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20284</v>
+        <v>18148</v>
       </c>
       <c r="C2" t="n">
-        <v>5495</v>
+        <v>5013</v>
       </c>
       <c r="D2" t="n">
-        <v>8858</v>
+        <v>7958</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5765</v>
+        <v>4984</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16233</v>
+        <v>14297</v>
       </c>
       <c r="I2" t="n">
-        <v>18840</v>
+        <v>16678</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19327</v>
+        <v>17375</v>
       </c>
       <c r="C3" t="n">
-        <v>5326</v>
+        <v>4797</v>
       </c>
       <c r="D3" t="n">
-        <v>8579</v>
+        <v>7728</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5474</v>
+        <v>4748</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15525</v>
+        <v>13616</v>
       </c>
       <c r="I3" t="n">
-        <v>18044</v>
+        <v>15936</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18874</v>
+        <v>16822</v>
       </c>
       <c r="C4" t="n">
-        <v>5074</v>
+        <v>4584</v>
       </c>
       <c r="D4" t="n">
-        <v>8222</v>
+        <v>7428</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5207</v>
+        <v>4502</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14915</v>
+        <v>13232</v>
       </c>
       <c r="I4" t="n">
-        <v>17246</v>
+        <v>15680</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18116</v>
+        <v>16579</v>
       </c>
       <c r="C5" t="n">
-        <v>4898</v>
+        <v>4396</v>
       </c>
       <c r="D5" t="n">
-        <v>8096</v>
+        <v>7259</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5122</v>
+        <v>4383</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14250</v>
+        <v>12882</v>
       </c>
       <c r="I5" t="n">
-        <v>16693</v>
+        <v>15362</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17627</v>
+        <v>15577</v>
       </c>
       <c r="C6" t="n">
-        <v>4776</v>
+        <v>4250</v>
       </c>
       <c r="D6" t="n">
-        <v>7886</v>
+        <v>6977</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5127</v>
+        <v>4401</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13758</v>
+        <v>12395</v>
       </c>
       <c r="I6" t="n">
-        <v>16379</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16811</v>
+        <v>15611</v>
       </c>
       <c r="C7" t="n">
-        <v>4689</v>
+        <v>4397</v>
       </c>
       <c r="D7" t="n">
-        <v>8073</v>
+        <v>7385</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4835</v>
+        <v>5670</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13050</v>
+        <v>12616</v>
       </c>
       <c r="I7" t="n">
-        <v>16006</v>
+        <v>15421</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16357</v>
+        <v>16020</v>
       </c>
       <c r="C8" t="n">
-        <v>4335</v>
+        <v>4271</v>
       </c>
       <c r="D8" t="n">
-        <v>7818</v>
+        <v>7385</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5775</v>
+        <v>5686</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12831</v>
+        <v>12482</v>
       </c>
       <c r="I8" t="n">
-        <v>15655</v>
+        <v>15607</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17026</v>
+        <v>16988</v>
       </c>
       <c r="C9" t="n">
-        <v>4359</v>
+        <v>4260</v>
       </c>
       <c r="D9" t="n">
-        <v>8307</v>
+        <v>8239</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6977</v>
+        <v>6936</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>13632</v>
+        <v>13203</v>
       </c>
       <c r="I9" t="n">
-        <v>17084</v>
+        <v>16325</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18871</v>
+        <v>19790</v>
       </c>
       <c r="C10" t="n">
-        <v>4658</v>
+        <v>4612</v>
       </c>
       <c r="D10" t="n">
-        <v>9495</v>
+        <v>9278</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8340</v>
+        <v>9860</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13826</v>
+        <v>14140</v>
       </c>
       <c r="I10" t="n">
-        <v>17727</v>
+        <v>17366</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20240</v>
+        <v>21261</v>
       </c>
       <c r="C11" t="n">
-        <v>4854</v>
+        <v>4869</v>
       </c>
       <c r="D11" t="n">
-        <v>13611</v>
+        <v>13801</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10149</v>
+        <v>11159</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14094</v>
+        <v>14370</v>
       </c>
       <c r="I11" t="n">
-        <v>20362</v>
+        <v>19318</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20713</v>
+        <v>22199</v>
       </c>
       <c r="C12" t="n">
-        <v>4751</v>
+        <v>4892</v>
       </c>
       <c r="D12" t="n">
-        <v>14520</v>
+        <v>15033</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10121</v>
+        <v>11092</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14588</v>
+        <v>14718</v>
       </c>
       <c r="I12" t="n">
-        <v>20070</v>
+        <v>19703</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21668</v>
+        <v>22248</v>
       </c>
       <c r="C13" t="n">
-        <v>4954</v>
+        <v>4873</v>
       </c>
       <c r="D13" t="n">
-        <v>15140</v>
+        <v>14907</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11124</v>
+        <v>10994</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>15250</v>
+        <v>14717</v>
       </c>
       <c r="I13" t="n">
-        <v>19893</v>
+        <v>20471</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20482</v>
+        <v>22944</v>
       </c>
       <c r="C14" t="n">
-        <v>4716</v>
+        <v>5049</v>
       </c>
       <c r="D14" t="n">
-        <v>14899</v>
+        <v>15548</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10394</v>
+        <v>11421</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14223</v>
+        <v>15162</v>
       </c>
       <c r="I14" t="n">
-        <v>19594</v>
+        <v>20714</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21814</v>
+        <v>24471</v>
       </c>
       <c r="C15" t="n">
-        <v>4965</v>
+        <v>5352</v>
       </c>
       <c r="D15" t="n">
-        <v>15376</v>
+        <v>15845</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>11188</v>
+        <v>11549</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>15034</v>
+        <v>16302</v>
       </c>
       <c r="I15" t="n">
-        <v>20182</v>
+        <v>20633</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20751</v>
+        <v>24747</v>
       </c>
       <c r="C16" t="n">
-        <v>4727</v>
+        <v>5407</v>
       </c>
       <c r="D16" t="n">
-        <v>14894</v>
+        <v>15815</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>10953</v>
+        <v>11862</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>14665</v>
+        <v>16649</v>
       </c>
       <c r="I16" t="n">
-        <v>20031</v>
+        <v>21771</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20781</v>
+        <v>24703</v>
       </c>
       <c r="C17" t="n">
-        <v>4699</v>
+        <v>5287</v>
       </c>
       <c r="D17" t="n">
-        <v>14778</v>
+        <v>16306</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>11073</v>
+        <v>12376</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14488</v>
+        <v>16744</v>
       </c>
       <c r="I17" t="n">
-        <v>19735</v>
+        <v>21567</v>
       </c>
     </row>
     <row r="18">
@@ -937,28 +937,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>20696</v>
+        <v>23538</v>
       </c>
       <c r="C18" t="n">
-        <v>4535</v>
+        <v>5351</v>
       </c>
       <c r="D18" t="n">
-        <v>14703</v>
+        <v>16087</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>10882</v>
+        <v>12215</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>14574</v>
+        <v>16349</v>
       </c>
       <c r="I18" t="n">
-        <v>19755</v>
+        <v>21614</v>
       </c>
     </row>
     <row r="19">
@@ -966,28 +966,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>21587</v>
+        <v>23895</v>
       </c>
       <c r="C19" t="n">
-        <v>4971</v>
+        <v>5781</v>
       </c>
       <c r="D19" t="n">
-        <v>15038</v>
+        <v>16357</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>11174</v>
+        <v>11666</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15454</v>
+        <v>17329</v>
       </c>
       <c r="I19" t="n">
-        <v>20780</v>
+        <v>23270</v>
       </c>
     </row>
     <row r="20">
@@ -995,28 +995,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>22888</v>
+        <v>23809</v>
       </c>
       <c r="C20" t="n">
-        <v>5435</v>
+        <v>5456</v>
       </c>
       <c r="D20" t="n">
-        <v>15277</v>
+        <v>16036</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9929</v>
+        <v>9969</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16235</v>
+        <v>17035</v>
       </c>
       <c r="I20" t="n">
-        <v>21335</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="21">
@@ -1024,28 +1024,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>21761</v>
+        <v>24882</v>
       </c>
       <c r="C21" t="n">
-        <v>5437</v>
+        <v>5677</v>
       </c>
       <c r="D21" t="n">
-        <v>15044</v>
+        <v>14651</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9007</v>
+        <v>9222</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>16059</v>
+        <v>16464</v>
       </c>
       <c r="I21" t="n">
-        <v>21578</v>
+        <v>21960</v>
       </c>
     </row>
     <row r="22">
@@ -1053,28 +1053,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>21109</v>
+        <v>21729</v>
       </c>
       <c r="C22" t="n">
-        <v>5639</v>
+        <v>5878</v>
       </c>
       <c r="D22" t="n">
-        <v>13939</v>
+        <v>14335</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7190</v>
+        <v>7473</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15859</v>
+        <v>17395</v>
       </c>
       <c r="I22" t="n">
-        <v>20717</v>
+        <v>22155</v>
       </c>
     </row>
     <row r="23">
@@ -1082,88 +1082,32 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>19975</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5628</v>
+        <v>5913</v>
       </c>
       <c r="D23" t="n">
-        <v>11521</v>
+        <v>12704</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6350</v>
+        <v>6531</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>15508</v>
+        <v>17414</v>
       </c>
       <c r="I23" t="n">
-        <v>19320</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>19706</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5478</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8880</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>5808</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15550</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18557</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5302</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>14863</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18148</v>
+        <v>18849</v>
       </c>
       <c r="C2" t="n">
-        <v>5013</v>
+        <v>4993</v>
       </c>
       <c r="D2" t="n">
-        <v>7958</v>
+        <v>8809</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4984</v>
+        <v>5861</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14297</v>
+        <v>14991</v>
       </c>
       <c r="I2" t="n">
-        <v>16678</v>
+        <v>18553</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17375</v>
+        <v>18175</v>
       </c>
       <c r="C3" t="n">
-        <v>4797</v>
+        <v>4852</v>
       </c>
       <c r="D3" t="n">
-        <v>7728</v>
+        <v>8549</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4748</v>
+        <v>5503</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13616</v>
+        <v>14425</v>
       </c>
       <c r="I3" t="n">
-        <v>15936</v>
+        <v>17804</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16822</v>
+        <v>17755</v>
       </c>
       <c r="C4" t="n">
-        <v>4584</v>
+        <v>4595</v>
       </c>
       <c r="D4" t="n">
-        <v>7428</v>
+        <v>8260</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4502</v>
+        <v>5166</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13232</v>
+        <v>12730</v>
       </c>
       <c r="I4" t="n">
-        <v>15680</v>
+        <v>17106</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16579</v>
+        <v>16961</v>
       </c>
       <c r="C5" t="n">
-        <v>4396</v>
+        <v>4508</v>
       </c>
       <c r="D5" t="n">
-        <v>7259</v>
+        <v>8095</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4383</v>
+        <v>5128</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12882</v>
+        <v>13244</v>
       </c>
       <c r="I5" t="n">
-        <v>15362</v>
+        <v>16333</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15577</v>
+        <v>17567</v>
       </c>
       <c r="C6" t="n">
-        <v>4250</v>
+        <v>4568</v>
       </c>
       <c r="D6" t="n">
-        <v>6977</v>
+        <v>8089</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4401</v>
+        <v>5068</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12395</v>
+        <v>12963</v>
       </c>
       <c r="I6" t="n">
-        <v>12382</v>
+        <v>16881</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15611</v>
+        <v>18504</v>
       </c>
       <c r="C7" t="n">
-        <v>4397</v>
+        <v>5079</v>
       </c>
       <c r="D7" t="n">
-        <v>7385</v>
+        <v>8845</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5670</v>
+        <v>6427</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12616</v>
+        <v>14292</v>
       </c>
       <c r="I7" t="n">
-        <v>15421</v>
+        <v>17918</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16020</v>
+        <v>18075</v>
       </c>
       <c r="C8" t="n">
-        <v>4271</v>
+        <v>4252</v>
       </c>
       <c r="D8" t="n">
-        <v>7385</v>
+        <v>9078</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5686</v>
+        <v>7144</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12482</v>
+        <v>14101</v>
       </c>
       <c r="I8" t="n">
-        <v>15607</v>
+        <v>17399</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16988</v>
+        <v>20157</v>
       </c>
       <c r="C9" t="n">
-        <v>4260</v>
+        <v>4483</v>
       </c>
       <c r="D9" t="n">
-        <v>8239</v>
+        <v>10453</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6936</v>
+        <v>9822</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>13203</v>
+        <v>16102</v>
       </c>
       <c r="I9" t="n">
-        <v>16325</v>
+        <v>19467</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19790</v>
+        <v>25877</v>
       </c>
       <c r="C10" t="n">
-        <v>4612</v>
+        <v>4973</v>
       </c>
       <c r="D10" t="n">
-        <v>9278</v>
+        <v>12810</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>9860</v>
+        <v>12116</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14140</v>
+        <v>17894</v>
       </c>
       <c r="I10" t="n">
-        <v>17366</v>
+        <v>21055</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21261</v>
+        <v>27231</v>
       </c>
       <c r="C11" t="n">
-        <v>4869</v>
+        <v>5261</v>
       </c>
       <c r="D11" t="n">
-        <v>13801</v>
+        <v>16678</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11159</v>
+        <v>13582</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>14370</v>
+        <v>18314</v>
       </c>
       <c r="I11" t="n">
-        <v>19318</v>
+        <v>23057</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22199</v>
+        <v>28382</v>
       </c>
       <c r="C12" t="n">
-        <v>4892</v>
+        <v>5591</v>
       </c>
       <c r="D12" t="n">
-        <v>15033</v>
+        <v>17993</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>11092</v>
+        <v>14269</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14718</v>
+        <v>19673</v>
       </c>
       <c r="I12" t="n">
-        <v>19703</v>
+        <v>24404</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22248</v>
+        <v>29040</v>
       </c>
       <c r="C13" t="n">
-        <v>4873</v>
+        <v>5776</v>
       </c>
       <c r="D13" t="n">
-        <v>14907</v>
+        <v>18247</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10994</v>
+        <v>14444</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14717</v>
+        <v>19647</v>
       </c>
       <c r="I13" t="n">
-        <v>20471</v>
+        <v>24167</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22944</v>
+        <v>27988</v>
       </c>
       <c r="C14" t="n">
-        <v>5049</v>
+        <v>5392</v>
       </c>
       <c r="D14" t="n">
-        <v>15548</v>
+        <v>18188</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11421</v>
+        <v>14483</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>15162</v>
+        <v>18997</v>
       </c>
       <c r="I14" t="n">
-        <v>20714</v>
+        <v>24211</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24471</v>
+        <v>29908</v>
       </c>
       <c r="C15" t="n">
-        <v>5352</v>
+        <v>5917</v>
       </c>
       <c r="D15" t="n">
-        <v>15845</v>
+        <v>18554</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>11549</v>
+        <v>14599</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16302</v>
+        <v>20353</v>
       </c>
       <c r="I15" t="n">
-        <v>20633</v>
+        <v>24098</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24747</v>
+        <v>29842</v>
       </c>
       <c r="C16" t="n">
-        <v>5407</v>
+        <v>10569</v>
       </c>
       <c r="D16" t="n">
-        <v>15815</v>
+        <v>18693</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>11862</v>
+        <v>14775</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>16649</v>
+        <v>20463</v>
       </c>
       <c r="I16" t="n">
-        <v>21771</v>
+        <v>24821</v>
       </c>
     </row>
     <row r="17">
@@ -908,204 +908,36 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24703</v>
+        <v>29762</v>
       </c>
       <c r="C17" t="n">
-        <v>5287</v>
+        <v>1242</v>
       </c>
       <c r="D17" t="n">
-        <v>16306</v>
+        <v>18487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12376</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16744</v>
+        <v>20385</v>
       </c>
       <c r="I17" t="n">
-        <v>21567</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>23538</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5351</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16087</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12215</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16349</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21614</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>23895</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5781</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16357</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11666</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>17329</v>
-      </c>
-      <c r="I19" t="n">
-        <v>23270</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>23809</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5456</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16036</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>9969</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17035</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22115</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>24882</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5677</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14651</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9222</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16464</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21960</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21729</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5878</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14335</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7473</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>17395</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22155</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5913</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12704</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6531</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17414</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24"/>
     <row r="25"/>
   </sheetData>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18849</v>
+        <v>19643</v>
       </c>
       <c r="C2" t="n">
-        <v>4993</v>
+        <v>5281</v>
       </c>
       <c r="D2" t="n">
-        <v>8809</v>
+        <v>9069</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5861</v>
+        <v>5814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14991</v>
+        <v>31668</v>
       </c>
       <c r="I2" t="n">
-        <v>18553</v>
+        <v>19387</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18175</v>
+        <v>19040</v>
       </c>
       <c r="C3" t="n">
-        <v>4852</v>
+        <v>5040</v>
       </c>
       <c r="D3" t="n">
-        <v>8549</v>
+        <v>8574</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5503</v>
+        <v>5639</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14425</v>
+        <v>15262</v>
       </c>
       <c r="I3" t="n">
-        <v>17804</v>
+        <v>18432</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17755</v>
+        <v>18162</v>
       </c>
       <c r="C4" t="n">
-        <v>4595</v>
+        <v>4815</v>
       </c>
       <c r="D4" t="n">
-        <v>8260</v>
+        <v>8241</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5166</v>
+        <v>5394</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12730</v>
+        <v>14814</v>
       </c>
       <c r="I4" t="n">
-        <v>17106</v>
+        <v>17675</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16961</v>
+        <v>17939</v>
       </c>
       <c r="C5" t="n">
-        <v>4508</v>
+        <v>4600</v>
       </c>
       <c r="D5" t="n">
-        <v>8095</v>
+        <v>8067</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5128</v>
+        <v>5206</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13244</v>
+        <v>14538</v>
       </c>
       <c r="I5" t="n">
-        <v>16333</v>
+        <v>16824</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17567</v>
+        <v>17043</v>
       </c>
       <c r="C6" t="n">
-        <v>4568</v>
+        <v>4533</v>
       </c>
       <c r="D6" t="n">
-        <v>8089</v>
+        <v>7955</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5068</v>
+        <v>5166</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12963</v>
+        <v>16272</v>
       </c>
       <c r="I6" t="n">
-        <v>16881</v>
+        <v>16740</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18504</v>
+        <v>17442</v>
       </c>
       <c r="C7" t="n">
-        <v>5079</v>
+        <v>4661</v>
       </c>
       <c r="D7" t="n">
-        <v>8845</v>
+        <v>8396</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6427</v>
+        <v>5324</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14292</v>
+        <v>26896</v>
       </c>
       <c r="I7" t="n">
-        <v>17918</v>
+        <v>16961</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18075</v>
+        <v>17016</v>
       </c>
       <c r="C8" t="n">
-        <v>4252</v>
+        <v>4457</v>
       </c>
       <c r="D8" t="n">
-        <v>9078</v>
+        <v>8400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7144</v>
+        <v>6436</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14101</v>
+        <v>13134</v>
       </c>
       <c r="I8" t="n">
-        <v>17399</v>
+        <v>16774</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20157</v>
+        <v>18140</v>
       </c>
       <c r="C9" t="n">
-        <v>4483</v>
+        <v>4331</v>
       </c>
       <c r="D9" t="n">
-        <v>10453</v>
+        <v>9655</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9822</v>
+        <v>8429</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16102</v>
+        <v>14975</v>
       </c>
       <c r="I9" t="n">
-        <v>19467</v>
+        <v>18225</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25877</v>
+        <v>21348</v>
       </c>
       <c r="C10" t="n">
-        <v>4973</v>
+        <v>4887</v>
       </c>
       <c r="D10" t="n">
-        <v>12810</v>
+        <v>11339</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12116</v>
+        <v>10065</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17894</v>
+        <v>15898</v>
       </c>
       <c r="I10" t="n">
-        <v>21055</v>
+        <v>19443</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27231</v>
+        <v>23261</v>
       </c>
       <c r="C11" t="n">
-        <v>5261</v>
+        <v>5220</v>
       </c>
       <c r="D11" t="n">
-        <v>16678</v>
+        <v>16300</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13582</v>
+        <v>12623</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18314</v>
+        <v>16704</v>
       </c>
       <c r="I11" t="n">
-        <v>23057</v>
+        <v>21165</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28382</v>
+        <v>24338</v>
       </c>
       <c r="C12" t="n">
-        <v>5591</v>
+        <v>5393</v>
       </c>
       <c r="D12" t="n">
-        <v>17993</v>
+        <v>16277</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14269</v>
+        <v>12894</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>19673</v>
+        <v>17187</v>
       </c>
       <c r="I12" t="n">
-        <v>24404</v>
+        <v>21851</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29040</v>
+        <v>23109</v>
       </c>
       <c r="C13" t="n">
-        <v>5776</v>
+        <v>5507</v>
       </c>
       <c r="D13" t="n">
-        <v>18247</v>
+        <v>16046</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14444</v>
+        <v>12282</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19647</v>
+        <v>16479</v>
       </c>
       <c r="I13" t="n">
-        <v>24167</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27988</v>
+        <v>24018</v>
       </c>
       <c r="C14" t="n">
-        <v>5392</v>
+        <v>5301</v>
       </c>
       <c r="D14" t="n">
-        <v>18188</v>
+        <v>16739</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14483</v>
+        <v>17565</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18997</v>
+        <v>17534</v>
       </c>
       <c r="I14" t="n">
-        <v>24211</v>
+        <v>22061</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29908</v>
+        <v>24893</v>
       </c>
       <c r="C15" t="n">
-        <v>5917</v>
+        <v>5711</v>
       </c>
       <c r="D15" t="n">
-        <v>18554</v>
+        <v>16754</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>14599</v>
+        <v>13142</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20353</v>
+        <v>17148</v>
       </c>
       <c r="I15" t="n">
-        <v>24098</v>
+        <v>23071</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29842</v>
+        <v>25292</v>
       </c>
       <c r="C16" t="n">
-        <v>10569</v>
+        <v>5665</v>
       </c>
       <c r="D16" t="n">
-        <v>18693</v>
+        <v>16075</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14775</v>
+        <v>13332</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20463</v>
+        <v>16830</v>
       </c>
       <c r="I16" t="n">
-        <v>24821</v>
+        <v>22368</v>
       </c>
     </row>
     <row r="17">
@@ -908,38 +908,262 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29762</v>
+        <v>24339</v>
       </c>
       <c r="C17" t="n">
-        <v>1242</v>
+        <v>5402</v>
       </c>
       <c r="D17" t="n">
-        <v>18487</v>
+        <v>16202</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>13289</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>20385</v>
+        <v>16510</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
+        <v>22358</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23612</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5081</v>
+      </c>
+      <c r="D18" t="n">
+        <v>15610</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12948</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16003</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23281</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4908</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15366</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15753</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21468</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23789</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5575</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15309</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11345</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16857</v>
+      </c>
+      <c r="I20" t="n">
+        <v>22267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22074</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15093</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10183</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16352</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21667</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5851</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14538</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8028</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>16625</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22048</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21596</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5973</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12506</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7058</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17049</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20872</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21121</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5844</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9627</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6232</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>16818</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20534</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20491</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5652</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8859</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5806</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16249</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19643</v>
+        <v>17218</v>
       </c>
       <c r="C2" t="n">
-        <v>5281</v>
+        <v>4744</v>
       </c>
       <c r="D2" t="n">
-        <v>9069</v>
+        <v>7729</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5814</v>
+        <v>4871</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>31668</v>
+        <v>14088</v>
       </c>
       <c r="I2" t="n">
-        <v>19387</v>
+        <v>17074</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19040</v>
+        <v>16791</v>
       </c>
       <c r="C3" t="n">
-        <v>5040</v>
+        <v>4524</v>
       </c>
       <c r="D3" t="n">
-        <v>8574</v>
+        <v>7518</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5639</v>
+        <v>4673</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15262</v>
+        <v>13227</v>
       </c>
       <c r="I3" t="n">
-        <v>18432</v>
+        <v>16352</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18162</v>
+        <v>16178</v>
       </c>
       <c r="C4" t="n">
-        <v>4815</v>
+        <v>4318</v>
       </c>
       <c r="D4" t="n">
-        <v>8241</v>
+        <v>7339</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5394</v>
+        <v>4523</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14814</v>
+        <v>13023</v>
       </c>
       <c r="I4" t="n">
-        <v>17675</v>
+        <v>15877</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17939</v>
+        <v>15705</v>
       </c>
       <c r="C5" t="n">
-        <v>4600</v>
+        <v>4269</v>
       </c>
       <c r="D5" t="n">
-        <v>8067</v>
+        <v>7268</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5206</v>
+        <v>4450</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14538</v>
+        <v>12784</v>
       </c>
       <c r="I5" t="n">
-        <v>16824</v>
+        <v>15796</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17043</v>
+        <v>16704</v>
       </c>
       <c r="C6" t="n">
-        <v>4533</v>
+        <v>4560</v>
       </c>
       <c r="D6" t="n">
-        <v>7955</v>
+        <v>7432</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5166</v>
+        <v>4720</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16272</v>
+        <v>13319</v>
       </c>
       <c r="I6" t="n">
-        <v>16740</v>
+        <v>16447</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17442</v>
+        <v>17753</v>
       </c>
       <c r="C7" t="n">
-        <v>4661</v>
+        <v>4910</v>
       </c>
       <c r="D7" t="n">
-        <v>8396</v>
+        <v>8062</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5324</v>
+        <v>5584</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26896</v>
+        <v>14034</v>
       </c>
       <c r="I7" t="n">
-        <v>16961</v>
+        <v>17459</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17016</v>
+        <v>18187</v>
       </c>
       <c r="C8" t="n">
-        <v>4457</v>
+        <v>4410</v>
       </c>
       <c r="D8" t="n">
-        <v>8400</v>
+        <v>8441</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6436</v>
+        <v>6771</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13134</v>
+        <v>14185</v>
       </c>
       <c r="I8" t="n">
-        <v>16774</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18140</v>
+        <v>21165</v>
       </c>
       <c r="C9" t="n">
-        <v>4331</v>
+        <v>4679</v>
       </c>
       <c r="D9" t="n">
-        <v>9655</v>
+        <v>10305</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8429</v>
+        <v>9453</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>14975</v>
+        <v>16193</v>
       </c>
       <c r="I9" t="n">
-        <v>18225</v>
+        <v>19363</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21348</v>
+        <v>26539</v>
       </c>
       <c r="C10" t="n">
-        <v>4887</v>
+        <v>5435</v>
       </c>
       <c r="D10" t="n">
-        <v>11339</v>
+        <v>12881</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10065</v>
+        <v>12768</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15898</v>
+        <v>18743</v>
       </c>
       <c r="I10" t="n">
-        <v>19443</v>
+        <v>22087</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23261</v>
+        <v>28816</v>
       </c>
       <c r="C11" t="n">
-        <v>5220</v>
+        <v>5831</v>
       </c>
       <c r="D11" t="n">
-        <v>16300</v>
+        <v>16459</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12623</v>
+        <v>13796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16704</v>
+        <v>19437</v>
       </c>
       <c r="I11" t="n">
-        <v>21165</v>
+        <v>24090</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24338</v>
+        <v>29162</v>
       </c>
       <c r="C12" t="n">
-        <v>5393</v>
+        <v>5801</v>
       </c>
       <c r="D12" t="n">
-        <v>16277</v>
+        <v>18360</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12894</v>
+        <v>14092</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>17187</v>
+        <v>19402</v>
       </c>
       <c r="I12" t="n">
-        <v>21851</v>
+        <v>24922</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23109</v>
+        <v>29265</v>
       </c>
       <c r="C13" t="n">
-        <v>5507</v>
+        <v>5919</v>
       </c>
       <c r="D13" t="n">
-        <v>16046</v>
+        <v>18421</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12282</v>
+        <v>14471</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16479</v>
+        <v>19716</v>
       </c>
       <c r="I13" t="n">
-        <v>21592</v>
+        <v>25305</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24018</v>
+        <v>29689</v>
       </c>
       <c r="C14" t="n">
-        <v>5301</v>
+        <v>5765</v>
       </c>
       <c r="D14" t="n">
-        <v>16739</v>
+        <v>18171</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>17565</v>
+        <v>14225</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>17534</v>
+        <v>19981</v>
       </c>
       <c r="I14" t="n">
-        <v>22061</v>
+        <v>24921</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24893</v>
+        <v>30436</v>
       </c>
       <c r="C15" t="n">
-        <v>5711</v>
+        <v>6044</v>
       </c>
       <c r="D15" t="n">
-        <v>16754</v>
+        <v>18805</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>13142</v>
+        <v>15175</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17148</v>
+        <v>20615</v>
       </c>
       <c r="I15" t="n">
-        <v>23071</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25292</v>
+        <v>30921</v>
       </c>
       <c r="C16" t="n">
-        <v>5665</v>
+        <v>6017</v>
       </c>
       <c r="D16" t="n">
-        <v>16075</v>
+        <v>18794</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>13332</v>
+        <v>14937</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>16830</v>
+        <v>20903</v>
       </c>
       <c r="I16" t="n">
-        <v>22368</v>
+        <v>26070</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24339</v>
+        <v>30681</v>
       </c>
       <c r="C17" t="n">
-        <v>5402</v>
+        <v>6080</v>
       </c>
       <c r="D17" t="n">
-        <v>16202</v>
+        <v>18729</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13289</v>
+        <v>14970</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16510</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22358</v>
+        <v>25962</v>
       </c>
     </row>
     <row r="18">
@@ -937,233 +937,37 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>23612</v>
+        <v>29701</v>
       </c>
       <c r="C18" t="n">
-        <v>5081</v>
+        <v>6044</v>
       </c>
       <c r="D18" t="n">
-        <v>15610</v>
+        <v>18564</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>12948</v>
+        <v>15022</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>16003</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21658</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>23281</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4908</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15366</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12435</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>15753</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21468</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>23789</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5575</v>
-      </c>
-      <c r="D20" t="n">
-        <v>15309</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11345</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>16857</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22267</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>22074</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5636</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15093</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10183</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16352</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21896</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21667</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5851</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14538</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8028</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>16625</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22048</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21596</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5973</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12506</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>7058</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>17049</v>
-      </c>
-      <c r="I23" t="n">
-        <v>20872</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>21121</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5844</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9627</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6232</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>16818</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20534</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>20491</v>
-      </c>
-      <c r="C25" t="n">
-        <v>5652</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8859</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5806</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16249</v>
-      </c>
-      <c r="I25" t="n">
-        <v>19728</v>
-      </c>
-    </row>
+        <v>25317</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>17218</v>
+        <v>19189</v>
       </c>
       <c r="C2" t="n">
-        <v>4744</v>
+        <v>5219</v>
       </c>
       <c r="D2" t="n">
-        <v>7729</v>
+        <v>8740</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4871</v>
+        <v>5529</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14088</v>
+        <v>15018</v>
       </c>
       <c r="I2" t="n">
-        <v>17074</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16791</v>
+        <v>18379</v>
       </c>
       <c r="C3" t="n">
-        <v>4524</v>
+        <v>4985</v>
       </c>
       <c r="D3" t="n">
-        <v>7518</v>
+        <v>8351</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4673</v>
+        <v>5430</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13227</v>
+        <v>14349</v>
       </c>
       <c r="I3" t="n">
-        <v>16352</v>
+        <v>18477</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16178</v>
+        <v>17470</v>
       </c>
       <c r="C4" t="n">
-        <v>4318</v>
+        <v>4704</v>
       </c>
       <c r="D4" t="n">
-        <v>7339</v>
+        <v>8155</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4523</v>
+        <v>5207</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13023</v>
+        <v>13877</v>
       </c>
       <c r="I4" t="n">
-        <v>15877</v>
+        <v>17820</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15705</v>
+        <v>17438</v>
       </c>
       <c r="C5" t="n">
-        <v>4269</v>
+        <v>4638</v>
       </c>
       <c r="D5" t="n">
-        <v>7268</v>
+        <v>8102</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4450</v>
+        <v>5178</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12784</v>
+        <v>13798</v>
       </c>
       <c r="I5" t="n">
-        <v>15796</v>
+        <v>17620</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16704</v>
+        <v>18041</v>
       </c>
       <c r="C6" t="n">
-        <v>4560</v>
+        <v>4882</v>
       </c>
       <c r="D6" t="n">
-        <v>7432</v>
+        <v>8235</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4720</v>
+        <v>5226</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>13319</v>
+        <v>14143</v>
       </c>
       <c r="I6" t="n">
-        <v>16447</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17753</v>
+        <v>18811</v>
       </c>
       <c r="C7" t="n">
-        <v>4910</v>
+        <v>5371</v>
       </c>
       <c r="D7" t="n">
-        <v>8062</v>
+        <v>8886</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5584</v>
+        <v>5719</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14034</v>
+        <v>14910</v>
       </c>
       <c r="I7" t="n">
-        <v>17459</v>
+        <v>19136</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18187</v>
+        <v>18689</v>
       </c>
       <c r="C8" t="n">
-        <v>4410</v>
+        <v>4586</v>
       </c>
       <c r="D8" t="n">
-        <v>8441</v>
+        <v>9006</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6771</v>
+        <v>7021</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14185</v>
+        <v>14958</v>
       </c>
       <c r="I8" t="n">
-        <v>17577</v>
+        <v>18598</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21165</v>
+        <v>21111</v>
       </c>
       <c r="C9" t="n">
-        <v>4679</v>
+        <v>4741</v>
       </c>
       <c r="D9" t="n">
-        <v>10305</v>
+        <v>10697</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9453</v>
+        <v>10465</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16193</v>
+        <v>17456</v>
       </c>
       <c r="I9" t="n">
-        <v>19363</v>
+        <v>20215</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26539</v>
+        <v>27401</v>
       </c>
       <c r="C10" t="n">
-        <v>5435</v>
+        <v>5613</v>
       </c>
       <c r="D10" t="n">
-        <v>12881</v>
+        <v>13587</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12768</v>
+        <v>12996</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18743</v>
+        <v>19031</v>
       </c>
       <c r="I10" t="n">
-        <v>22087</v>
+        <v>23924</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28816</v>
+        <v>29301</v>
       </c>
       <c r="C11" t="n">
-        <v>5831</v>
+        <v>5688</v>
       </c>
       <c r="D11" t="n">
-        <v>16459</v>
+        <v>17571</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13796</v>
+        <v>14723</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>19437</v>
+        <v>20103</v>
       </c>
       <c r="I11" t="n">
-        <v>24090</v>
+        <v>24871</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29162</v>
+        <v>30596</v>
       </c>
       <c r="C12" t="n">
-        <v>5801</v>
+        <v>5902</v>
       </c>
       <c r="D12" t="n">
-        <v>18360</v>
+        <v>18831</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14092</v>
+        <v>14864</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>19402</v>
+        <v>20562</v>
       </c>
       <c r="I12" t="n">
-        <v>24922</v>
+        <v>25402</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29265</v>
+        <v>30033</v>
       </c>
       <c r="C13" t="n">
-        <v>5919</v>
+        <v>6037</v>
       </c>
       <c r="D13" t="n">
-        <v>18421</v>
+        <v>18926</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14471</v>
+        <v>14319</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19716</v>
+        <v>20138</v>
       </c>
       <c r="I13" t="n">
-        <v>25305</v>
+        <v>25728</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29689</v>
+        <v>30101</v>
       </c>
       <c r="C14" t="n">
-        <v>5765</v>
+        <v>5877</v>
       </c>
       <c r="D14" t="n">
-        <v>18171</v>
+        <v>19038</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>14225</v>
+        <v>15795</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>19981</v>
+        <v>21958</v>
       </c>
       <c r="I14" t="n">
-        <v>24921</v>
+        <v>25669</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30436</v>
+        <v>31220</v>
       </c>
       <c r="C15" t="n">
-        <v>6044</v>
+        <v>6127</v>
       </c>
       <c r="D15" t="n">
-        <v>18805</v>
+        <v>19084</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15175</v>
+        <v>15071</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20615</v>
+        <v>21170</v>
       </c>
       <c r="I15" t="n">
-        <v>25900</v>
+        <v>26296</v>
       </c>
     </row>
     <row r="16">
@@ -879,28 +879,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30921</v>
+        <v>32197</v>
       </c>
       <c r="C16" t="n">
-        <v>6017</v>
+        <v>6332</v>
       </c>
       <c r="D16" t="n">
-        <v>18794</v>
+        <v>19180</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14937</v>
+        <v>15521</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20903</v>
+        <v>21620</v>
       </c>
       <c r="I16" t="n">
-        <v>26070</v>
+        <v>26956</v>
       </c>
     </row>
     <row r="17">
@@ -908,28 +908,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30681</v>
+        <v>29317</v>
       </c>
       <c r="C17" t="n">
-        <v>6080</v>
+        <v>5863</v>
       </c>
       <c r="D17" t="n">
-        <v>18729</v>
+        <v>18637</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14970</v>
+        <v>14787</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>20501</v>
       </c>
       <c r="I17" t="n">
-        <v>25962</v>
+        <v>25861</v>
       </c>
     </row>
     <row r="18">
@@ -937,19 +937,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>29701</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6044</v>
+        <v>5726</v>
       </c>
       <c r="D18" t="n">
-        <v>18564</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>15022</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>25317</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="19"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19189</v>
+        <v>20279</v>
       </c>
       <c r="C2" t="n">
-        <v>5219</v>
+        <v>5680</v>
       </c>
       <c r="D2" t="n">
-        <v>8740</v>
+        <v>8744</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5529</v>
+        <v>4830</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15018</v>
+        <v>15955</v>
       </c>
       <c r="I2" t="n">
-        <v>19463</v>
+        <v>19204</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18379</v>
+        <v>19684</v>
       </c>
       <c r="C3" t="n">
-        <v>4985</v>
+        <v>5363</v>
       </c>
       <c r="D3" t="n">
-        <v>8351</v>
+        <v>8368</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5430</v>
+        <v>2493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>14349</v>
+        <v>15167</v>
       </c>
       <c r="I3" t="n">
-        <v>18477</v>
+        <v>18247</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17470</v>
+        <v>18963</v>
       </c>
       <c r="C4" t="n">
-        <v>4704</v>
+        <v>5124</v>
       </c>
       <c r="D4" t="n">
-        <v>8155</v>
+        <v>8064</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5207</v>
+        <v>6706</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13877</v>
+        <v>14659</v>
       </c>
       <c r="I4" t="n">
-        <v>17820</v>
+        <v>17306</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17438</v>
+        <v>18427</v>
       </c>
       <c r="C5" t="n">
-        <v>4638</v>
+        <v>4895</v>
       </c>
       <c r="D5" t="n">
-        <v>8102</v>
+        <v>7803</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5178</v>
+        <v>4364</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>13798</v>
+        <v>14149</v>
       </c>
       <c r="I5" t="n">
-        <v>17620</v>
+        <v>17130</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18041</v>
+        <v>18205</v>
       </c>
       <c r="C6" t="n">
-        <v>4882</v>
+        <v>5057</v>
       </c>
       <c r="D6" t="n">
-        <v>8235</v>
+        <v>7632</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5226</v>
+        <v>4440</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14143</v>
+        <v>14368</v>
       </c>
       <c r="I6" t="n">
-        <v>17900</v>
+        <v>17474</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18811</v>
+        <v>18895</v>
       </c>
       <c r="C7" t="n">
-        <v>5371</v>
+        <v>5068</v>
       </c>
       <c r="D7" t="n">
-        <v>8886</v>
+        <v>8014</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5719</v>
+        <v>4998</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14910</v>
+        <v>14645</v>
       </c>
       <c r="I7" t="n">
-        <v>19136</v>
+        <v>17548</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18689</v>
+        <v>18699</v>
       </c>
       <c r="C8" t="n">
-        <v>4586</v>
+        <v>4426</v>
       </c>
       <c r="D8" t="n">
-        <v>9006</v>
+        <v>8523</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7021</v>
+        <v>6270</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14958</v>
+        <v>14697</v>
       </c>
       <c r="I8" t="n">
-        <v>18598</v>
+        <v>17173</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21111</v>
+        <v>21042</v>
       </c>
       <c r="C9" t="n">
-        <v>4741</v>
+        <v>4856</v>
       </c>
       <c r="D9" t="n">
-        <v>10697</v>
+        <v>10234</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>10465</v>
+        <v>9412</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17456</v>
+        <v>16953</v>
       </c>
       <c r="I9" t="n">
-        <v>20215</v>
+        <v>19346</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27401</v>
+        <v>28208</v>
       </c>
       <c r="C10" t="n">
-        <v>5613</v>
+        <v>5919</v>
       </c>
       <c r="D10" t="n">
-        <v>13587</v>
+        <v>12992</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12996</v>
+        <v>13091</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19031</v>
+        <v>19821</v>
       </c>
       <c r="I10" t="n">
-        <v>23924</v>
+        <v>22589</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29301</v>
+        <v>30760</v>
       </c>
       <c r="C11" t="n">
-        <v>5688</v>
+        <v>6356</v>
       </c>
       <c r="D11" t="n">
-        <v>17571</v>
+        <v>18447</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14723</v>
+        <v>14815</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20103</v>
+        <v>24742</v>
       </c>
       <c r="I11" t="n">
-        <v>24871</v>
+        <v>24266</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>30596</v>
+        <v>31000</v>
       </c>
       <c r="C12" t="n">
-        <v>5902</v>
+        <v>6299</v>
       </c>
       <c r="D12" t="n">
-        <v>18831</v>
+        <v>18736</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14864</v>
+        <v>14545</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20562</v>
+        <v>20855</v>
       </c>
       <c r="I12" t="n">
-        <v>25402</v>
+        <v>24935</v>
       </c>
     </row>
     <row r="13">
@@ -792,28 +792,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30033</v>
+        <v>32183</v>
       </c>
       <c r="C13" t="n">
-        <v>6037</v>
+        <v>6679</v>
       </c>
       <c r="D13" t="n">
-        <v>18926</v>
+        <v>19282</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>14319</v>
+        <v>15307</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20138</v>
+        <v>21719</v>
       </c>
       <c r="I13" t="n">
-        <v>25728</v>
+        <v>25203</v>
       </c>
     </row>
     <row r="14">
@@ -821,28 +821,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30101</v>
+        <v>31457</v>
       </c>
       <c r="C14" t="n">
-        <v>5877</v>
+        <v>6408</v>
       </c>
       <c r="D14" t="n">
-        <v>19038</v>
+        <v>19365</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15795</v>
+        <v>15062</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>21958</v>
+        <v>21633</v>
       </c>
       <c r="I14" t="n">
-        <v>25669</v>
+        <v>25135</v>
       </c>
     </row>
     <row r="15">
@@ -850,28 +850,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31220</v>
+        <v>33743</v>
       </c>
       <c r="C15" t="n">
-        <v>6127</v>
+        <v>6884</v>
       </c>
       <c r="D15" t="n">
-        <v>19084</v>
+        <v>19638</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15071</v>
+        <v>15684</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>21170</v>
+        <v>22852</v>
       </c>
       <c r="I15" t="n">
-        <v>26296</v>
+        <v>26472</v>
       </c>
     </row>
     <row r="16">
@@ -879,88 +879,32 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32197</v>
+        <v>32616</v>
       </c>
       <c r="C16" t="n">
-        <v>6332</v>
+        <v>6599</v>
       </c>
       <c r="D16" t="n">
-        <v>19180</v>
+        <v>19282</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>15521</v>
+        <v>15182</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21620</v>
+        <v>22458</v>
       </c>
       <c r="I16" t="n">
-        <v>26956</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>29317</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5863</v>
-      </c>
-      <c r="D17" t="n">
-        <v>18637</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14787</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20501</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25861</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5726</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9830</v>
-      </c>
-    </row>
+        <v>25841</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20279</v>
+        <v>16685</v>
       </c>
       <c r="C2" t="n">
-        <v>5680</v>
+        <v>4428</v>
       </c>
       <c r="D2" t="n">
-        <v>8744</v>
+        <v>7889</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4830</v>
+        <v>4943</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15955</v>
+        <v>16720</v>
       </c>
       <c r="I2" t="n">
-        <v>19204</v>
+        <v>50665</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19684</v>
+        <v>16180</v>
       </c>
       <c r="C3" t="n">
-        <v>5363</v>
+        <v>4231</v>
       </c>
       <c r="D3" t="n">
-        <v>8368</v>
+        <v>7575</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2493</v>
+        <v>4791</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15167</v>
+        <v>16065</v>
       </c>
       <c r="I3" t="n">
-        <v>18247</v>
+        <v>48842</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18963</v>
+        <v>15828</v>
       </c>
       <c r="C4" t="n">
-        <v>5124</v>
+        <v>4024</v>
       </c>
       <c r="D4" t="n">
-        <v>8064</v>
+        <v>7486</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6706</v>
+        <v>4662</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14659</v>
+        <v>15442</v>
       </c>
       <c r="I4" t="n">
-        <v>17306</v>
+        <v>47442</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18427</v>
+        <v>15667</v>
       </c>
       <c r="C5" t="n">
-        <v>4895</v>
+        <v>3979</v>
       </c>
       <c r="D5" t="n">
-        <v>7803</v>
+        <v>7412</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4364</v>
+        <v>4599</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>14149</v>
+        <v>15517</v>
       </c>
       <c r="I5" t="n">
-        <v>17130</v>
+        <v>47174</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18205</v>
+        <v>15741</v>
       </c>
       <c r="C6" t="n">
-        <v>5057</v>
+        <v>4049</v>
       </c>
       <c r="D6" t="n">
-        <v>7632</v>
+        <v>7510</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4440</v>
+        <v>4755</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14368</v>
+        <v>15959</v>
       </c>
       <c r="I6" t="n">
-        <v>17474</v>
+        <v>48014</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18895</v>
+        <v>16878</v>
       </c>
       <c r="C7" t="n">
-        <v>5068</v>
+        <v>4508</v>
       </c>
       <c r="D7" t="n">
-        <v>8014</v>
+        <v>7913</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4998</v>
+        <v>5030</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14645</v>
+        <v>16920</v>
       </c>
       <c r="I7" t="n">
-        <v>17548</v>
+        <v>51249</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18699</v>
+        <v>17432</v>
       </c>
       <c r="C8" t="n">
-        <v>4426</v>
+        <v>4291</v>
       </c>
       <c r="D8" t="n">
-        <v>8523</v>
+        <v>8206</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6270</v>
+        <v>6243</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14697</v>
+        <v>17082</v>
       </c>
       <c r="I8" t="n">
-        <v>17173</v>
+        <v>53254</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21042</v>
+        <v>18993</v>
       </c>
       <c r="C9" t="n">
-        <v>4856</v>
+        <v>4369</v>
       </c>
       <c r="D9" t="n">
-        <v>10234</v>
+        <v>9080</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9412</v>
+        <v>8872</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>16953</v>
+        <v>17785</v>
       </c>
       <c r="I9" t="n">
-        <v>19346</v>
+        <v>59099</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28208</v>
+        <v>23159</v>
       </c>
       <c r="C10" t="n">
-        <v>5919</v>
+        <v>4806</v>
       </c>
       <c r="D10" t="n">
-        <v>12992</v>
+        <v>11120</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13091</v>
+        <v>12410</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19821</v>
+        <v>19463</v>
       </c>
       <c r="I10" t="n">
-        <v>22589</v>
+        <v>70958</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30760</v>
+        <v>24738</v>
       </c>
       <c r="C11" t="n">
-        <v>6356</v>
+        <v>5057</v>
       </c>
       <c r="D11" t="n">
-        <v>18447</v>
+        <v>15402</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14815</v>
+        <v>13134</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>24742</v>
+        <v>20659</v>
       </c>
       <c r="I11" t="n">
-        <v>24266</v>
+        <v>78990</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31000</v>
+        <v>25523</v>
       </c>
       <c r="C12" t="n">
-        <v>6299</v>
+        <v>5145</v>
       </c>
       <c r="D12" t="n">
-        <v>18736</v>
+        <v>16206</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14545</v>
+        <v>13741</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>20855</v>
+        <v>22164</v>
       </c>
       <c r="I12" t="n">
-        <v>24935</v>
+        <v>82779</v>
       </c>
     </row>
     <row r="13">
@@ -792,117 +792,33 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32183</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6679</v>
+        <v>5157</v>
       </c>
       <c r="D13" t="n">
-        <v>19282</v>
+        <v>16234</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>15307</v>
+        <v>13232</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21719</v>
+        <v>21224</v>
       </c>
       <c r="I13" t="n">
-        <v>25203</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>31457</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6408</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19365</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15062</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21633</v>
-      </c>
-      <c r="I14" t="n">
-        <v>25135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>33743</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6884</v>
-      </c>
-      <c r="D15" t="n">
-        <v>19638</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15684</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>22852</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26472</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>32616</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6599</v>
-      </c>
-      <c r="D16" t="n">
-        <v>19282</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15182</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22458</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25841</v>
-      </c>
-    </row>
+        <v>55847</v>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,28 +473,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16685</v>
+        <v>20222</v>
       </c>
       <c r="C2" t="n">
-        <v>4428</v>
+        <v>5513</v>
       </c>
       <c r="D2" t="n">
-        <v>7889</v>
+        <v>11536</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>16729</v>
       </c>
       <c r="F2" t="n">
-        <v>4943</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16720</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16180</v>
+        <v>19240</v>
       </c>
       <c r="C3" t="n">
-        <v>4231</v>
+        <v>5184</v>
       </c>
       <c r="D3" t="n">
-        <v>7575</v>
+        <v>11048</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15329</v>
       </c>
       <c r="F3" t="n">
-        <v>4791</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -531,28 +531,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15828</v>
+        <v>18198</v>
       </c>
       <c r="C4" t="n">
-        <v>4024</v>
+        <v>4854</v>
       </c>
       <c r="D4" t="n">
-        <v>7486</v>
+        <v>10610</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14949</v>
       </c>
       <c r="F4" t="n">
-        <v>4662</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15442</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>47442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -560,28 +560,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15667</v>
+        <v>17345</v>
       </c>
       <c r="C5" t="n">
-        <v>3979</v>
+        <v>4658</v>
       </c>
       <c r="D5" t="n">
-        <v>7412</v>
+        <v>10252</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14469</v>
       </c>
       <c r="F5" t="n">
-        <v>4599</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>15517</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>47174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -589,28 +589,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15741</v>
+        <v>17742</v>
       </c>
       <c r="C6" t="n">
-        <v>4049</v>
+        <v>4800</v>
       </c>
       <c r="D6" t="n">
-        <v>7510</v>
+        <v>10535</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14489</v>
       </c>
       <c r="F6" t="n">
-        <v>4755</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>15959</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -618,28 +618,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16878</v>
+        <v>18085</v>
       </c>
       <c r="C7" t="n">
-        <v>4508</v>
+        <v>4890</v>
       </c>
       <c r="D7" t="n">
-        <v>7913</v>
+        <v>10899</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14611</v>
       </c>
       <c r="F7" t="n">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16920</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -647,28 +647,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17432</v>
+        <v>17689</v>
       </c>
       <c r="C8" t="n">
-        <v>4291</v>
+        <v>4420</v>
       </c>
       <c r="D8" t="n">
-        <v>8206</v>
+        <v>10825</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>14937</v>
       </c>
       <c r="F8" t="n">
-        <v>6243</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17082</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>53254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,28 +676,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18993</v>
+        <v>20608</v>
       </c>
       <c r="C9" t="n">
-        <v>4369</v>
+        <v>4502</v>
       </c>
       <c r="D9" t="n">
-        <v>9080</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>16873</v>
       </c>
       <c r="F9" t="n">
-        <v>8872</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>17785</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>59099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -705,28 +705,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23159</v>
+        <v>25888</v>
       </c>
       <c r="C10" t="n">
-        <v>4806</v>
+        <v>5559</v>
       </c>
       <c r="D10" t="n">
-        <v>11120</v>
+        <v>14619</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19334</v>
       </c>
       <c r="F10" t="n">
-        <v>12410</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19463</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -734,28 +734,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24738</v>
+        <v>28174</v>
       </c>
       <c r="C11" t="n">
-        <v>5057</v>
+        <v>5754</v>
       </c>
       <c r="D11" t="n">
-        <v>15402</v>
+        <v>19760</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>20151</v>
       </c>
       <c r="F11" t="n">
-        <v>13134</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20659</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25523</v>
+        <v>29407</v>
       </c>
       <c r="C12" t="n">
-        <v>5145</v>
+        <v>6128</v>
       </c>
       <c r="D12" t="n">
-        <v>16206</v>
+        <v>21229</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>20872</v>
       </c>
       <c r="F12" t="n">
-        <v>13741</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>22164</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>82779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -792,33 +792,117 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>30004</v>
       </c>
       <c r="C13" t="n">
-        <v>5157</v>
+        <v>6245</v>
       </c>
       <c r="D13" t="n">
-        <v>16234</v>
+        <v>20824</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21493</v>
       </c>
       <c r="F13" t="n">
-        <v>13232</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>55847</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30232</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21767</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31909</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6459</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21970</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22757</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6674</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22172</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23064</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17"/>
     <row r="18"/>
     <row r="19"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20222</v>
+        <v>21880</v>
       </c>
       <c r="C2" t="n">
-        <v>5513</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11536</v>
+        <v>8185</v>
       </c>
       <c r="E2" t="n">
-        <v>16729</v>
+        <v>14107</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19240</v>
+        <v>20927</v>
       </c>
       <c r="C3" t="n">
-        <v>5184</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11048</v>
+        <v>7756</v>
       </c>
       <c r="E3" t="n">
-        <v>15329</v>
+        <v>13541</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,16 +531,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18198</v>
+        <v>20203</v>
       </c>
       <c r="C4" t="n">
-        <v>4854</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10610</v>
+        <v>7506</v>
       </c>
       <c r="E4" t="n">
-        <v>14949</v>
+        <v>13044</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17345</v>
+        <v>19625</v>
       </c>
       <c r="C5" t="n">
-        <v>4658</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10252</v>
+        <v>7326</v>
       </c>
       <c r="E5" t="n">
-        <v>14469</v>
+        <v>12700</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17742</v>
+        <v>19870</v>
       </c>
       <c r="C6" t="n">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>10535</v>
+        <v>7459</v>
       </c>
       <c r="E6" t="n">
-        <v>14489</v>
+        <v>13071</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,16 +618,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18085</v>
+        <v>20719</v>
       </c>
       <c r="C7" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10899</v>
+        <v>7765</v>
       </c>
       <c r="E7" t="n">
-        <v>14611</v>
+        <v>13281</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17689</v>
+        <v>21184</v>
       </c>
       <c r="C8" t="n">
-        <v>4420</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10825</v>
+        <v>8675</v>
       </c>
       <c r="E8" t="n">
-        <v>14937</v>
+        <v>13242</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,16 +676,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20608</v>
+        <v>23255</v>
       </c>
       <c r="C9" t="n">
-        <v>4502</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10453</v>
       </c>
       <c r="E9" t="n">
-        <v>16873</v>
+        <v>14985</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25888</v>
+        <v>27018</v>
       </c>
       <c r="C10" t="n">
-        <v>5559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>14619</v>
+        <v>12871</v>
       </c>
       <c r="E10" t="n">
-        <v>19334</v>
+        <v>16140</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28174</v>
+        <v>28411</v>
       </c>
       <c r="C11" t="n">
-        <v>5754</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>19760</v>
+        <v>17400</v>
       </c>
       <c r="E11" t="n">
-        <v>20151</v>
+        <v>16200</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29407</v>
+        <v>28206</v>
       </c>
       <c r="C12" t="n">
-        <v>6128</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>21229</v>
+        <v>18008</v>
       </c>
       <c r="E12" t="n">
-        <v>20872</v>
+        <v>16146</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30004</v>
+        <v>28219</v>
       </c>
       <c r="C13" t="n">
-        <v>6245</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>20824</v>
+        <v>17338</v>
       </c>
       <c r="E13" t="n">
-        <v>21493</v>
+        <v>15974</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30232</v>
+        <v>27737</v>
       </c>
       <c r="C14" t="n">
-        <v>6142</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>21177</v>
+        <v>17710</v>
       </c>
       <c r="E14" t="n">
-        <v>21767</v>
+        <v>16214</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>31909</v>
+        <v>28697</v>
       </c>
       <c r="C15" t="n">
-        <v>6459</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>21970</v>
+        <v>17837</v>
       </c>
       <c r="E15" t="n">
-        <v>22757</v>
+        <v>16769</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -879,16 +879,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>28207</v>
       </c>
       <c r="C16" t="n">
-        <v>6674</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22172</v>
+        <v>17323</v>
       </c>
       <c r="E16" t="n">
-        <v>23064</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17323</v>
+        <v>17383</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16256</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -903,8 +903,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>27382</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16713</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15732</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23320</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16598</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15438</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -937,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>23320</v>
+        <v>26394</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -961,11 +961,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24734</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16117</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15506</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15648</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15435</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23135</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14515</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14707</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22359</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13506</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14749</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22099</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11221</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14631</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24"/>
     <row r="25"/>
   </sheetData>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21880</v>
+        <v>19364</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8185</v>
+        <v>7415</v>
       </c>
       <c r="E2" t="n">
-        <v>14107</v>
+        <v>12698</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20927</v>
+        <v>18682</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7756</v>
+        <v>7137</v>
       </c>
       <c r="E3" t="n">
-        <v>13541</v>
+        <v>12096</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,16 +531,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20203</v>
+        <v>18163</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7506</v>
+        <v>6924</v>
       </c>
       <c r="E4" t="n">
-        <v>13044</v>
+        <v>11513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19625</v>
+        <v>17462</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7326</v>
+        <v>6785</v>
       </c>
       <c r="E5" t="n">
-        <v>12700</v>
+        <v>11313</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19870</v>
+        <v>17704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7459</v>
+        <v>6856</v>
       </c>
       <c r="E6" t="n">
-        <v>13071</v>
+        <v>11395</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,16 +618,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20719</v>
+        <v>18782</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7765</v>
+        <v>7287</v>
       </c>
       <c r="E7" t="n">
-        <v>13281</v>
+        <v>12132</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21184</v>
+        <v>19622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8675</v>
+        <v>7917</v>
       </c>
       <c r="E8" t="n">
-        <v>13242</v>
+        <v>12052</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,16 +676,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23255</v>
+        <v>21059</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10453</v>
+        <v>9275</v>
       </c>
       <c r="E9" t="n">
-        <v>14985</v>
+        <v>13477</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27018</v>
+        <v>25835</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12871</v>
+        <v>12901</v>
       </c>
       <c r="E10" t="n">
-        <v>16140</v>
+        <v>15209</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28411</v>
+        <v>27814</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>17400</v>
+        <v>16336</v>
       </c>
       <c r="E11" t="n">
-        <v>16200</v>
+        <v>16239</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28206</v>
+        <v>28412</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>18008</v>
+        <v>17948</v>
       </c>
       <c r="E12" t="n">
-        <v>16146</v>
+        <v>16350</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28219</v>
+        <v>28879</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>17338</v>
+        <v>18058</v>
       </c>
       <c r="E13" t="n">
-        <v>15974</v>
+        <v>17172</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27737</v>
+        <v>29465</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17710</v>
+        <v>17343</v>
       </c>
       <c r="E14" t="n">
-        <v>16214</v>
+        <v>18118</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28697</v>
+        <v>28788</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>17837</v>
+        <v>16992</v>
       </c>
       <c r="E15" t="n">
-        <v>16769</v>
+        <v>16714</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -879,16 +879,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28207</v>
+        <v>29802</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17383</v>
+        <v>18000</v>
       </c>
       <c r="E16" t="n">
-        <v>16256</v>
+        <v>17963</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27382</v>
+        <v>28272</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16713</v>
+        <v>16976</v>
       </c>
       <c r="E17" t="n">
-        <v>15732</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -937,16 +937,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>26394</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16598</v>
+        <v>6124</v>
       </c>
       <c r="E18" t="n">
-        <v>15438</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -961,151 +961,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24734</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16117</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15506</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>24108</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>15648</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15435</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>23135</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14515</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14707</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>22359</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13506</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14749</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22099</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11221</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14631</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24"/>
     <row r="25"/>
   </sheetData>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>6124</v>
+        <v>17275</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19364</v>
+        <v>20163</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7415</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12698</v>
+        <v>12898</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>18682</v>
+        <v>19359</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7137</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12096</v>
+        <v>12469</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,16 +531,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18163</v>
+        <v>18549</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6924</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11513</v>
+        <v>12025</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17462</v>
+        <v>17841</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6785</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11313</v>
+        <v>11802</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17704</v>
+        <v>18016</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6856</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11395</v>
+        <v>11832</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,16 +618,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18782</v>
+        <v>18546</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7287</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12132</v>
+        <v>12250</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19622</v>
+        <v>19203</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7917</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12052</v>
+        <v>12410</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,16 +676,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21059</v>
+        <v>21420</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9275</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13477</v>
+        <v>13519</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25835</v>
+        <v>26095</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12901</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15209</v>
+        <v>15839</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27814</v>
+        <v>28036</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>16336</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16239</v>
+        <v>15116</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,16 +763,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28412</v>
+        <v>28526</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>17948</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>16350</v>
+        <v>15853</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>28879</v>
+        <v>29282</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>18058</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17172</v>
+        <v>15881</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29465</v>
+        <v>28956</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17343</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>18118</v>
+        <v>16391</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28788</v>
+        <v>30957</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>16714</v>
+        <v>16335</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -874,93 +874,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>29802</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17963</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>28272</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>16976</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17275</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20163</v>
+        <v>20375</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12898</v>
+        <v>13600</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19359</v>
+        <v>19450</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12469</v>
+        <v>12815</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18549</v>
+        <v>18859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12025</v>
+        <v>12262</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17841</v>
+        <v>18307</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11802</v>
+        <v>12056</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18016</v>
+        <v>19247</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11832</v>
+        <v>12793</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18546</v>
+        <v>19852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12250</v>
+        <v>13020</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19203</v>
+        <v>20090</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12410</v>
+        <v>13096</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21420</v>
+        <v>21195</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>13519</v>
+        <v>14385</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26095</v>
+        <v>25946</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15839</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -729,151 +729,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>28036</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>15116</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>28526</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15853</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>29282</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15881</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>28956</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16391</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30957</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>16335</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16"/>
     <row r="17"/>
     <row r="18"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15649</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -729,11 +729,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28624</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16632</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29457</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17273</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29120</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>17024</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28809</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17184</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30946</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16"/>
     <row r="17"/>
     <row r="18"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20375</v>
+        <v>21469</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13600</v>
+        <v>15259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19450</v>
+        <v>20621</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12815</v>
+        <v>14648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18859</v>
+        <v>19828</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12262</v>
+        <v>13520</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18307</v>
+        <v>19009</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12056</v>
+        <v>12691</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19247</v>
+        <v>18488</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12793</v>
+        <v>12274</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19852</v>
+        <v>18753</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13020</v>
+        <v>12200</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20090</v>
+        <v>18740</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13096</v>
+        <v>12590</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21195</v>
+        <v>19624</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>14385</v>
+        <v>12971</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25946</v>
+        <v>22373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15649</v>
+        <v>13835</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28624</v>
+        <v>24582</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>16632</v>
+        <v>14487</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29457</v>
+        <v>25034</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>17273</v>
+        <v>14850</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29120</v>
+        <v>24749</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17024</v>
+        <v>14469</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28809</v>
+        <v>24350</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>17184</v>
+        <v>14333</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30946</v>
+        <v>25698</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15180</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -874,10 +874,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15492</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25623</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15143</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24213</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14781</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21283</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14963</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -990,7 +990,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20"/>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15680</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -966,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>21283</v>
+        <v>24360</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>25359</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -1019,7 +1019,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21"/>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22"/>
     <row r="23"/>
     <row r="24"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>20315</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1048,7 +1048,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15253</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23"/>
     <row r="24"/>
     <row r="25"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20315</v>
+        <v>23313</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1077,8 +1077,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24"/>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23115</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15564</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22709</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15389</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21469</v>
+        <v>20723</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15259</v>
+        <v>13745</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20621</v>
+        <v>19860</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14648</v>
+        <v>12969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19828</v>
+        <v>19350</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13520</v>
+        <v>12554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>19009</v>
+        <v>18643</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12691</v>
+        <v>11996</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18488</v>
+        <v>18281</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12274</v>
+        <v>8158</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18753</v>
+        <v>18124</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>12200</v>
+        <v>11818</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18740</v>
+        <v>17748</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12590</v>
+        <v>11568</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19624</v>
+        <v>18394</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12971</v>
+        <v>11735</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22373</v>
+        <v>20038</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>13835</v>
+        <v>12362</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24582</v>
+        <v>17748</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>14487</v>
+        <v>12258</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25034</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>14850</v>
+        <v>12410</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -787,354 +787,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>24749</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14469</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24350</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14333</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>25698</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15180</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>26016</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15492</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25623</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15143</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>24213</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14781</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24360</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14963</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>25359</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>15680</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>23313</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15333</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>23000</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15253</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>23115</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>15564</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22709</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15389</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
     <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17748</v>
+        <v>20363</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>20777</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -787,17 +787,325 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20382</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12615</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21520</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13127</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22336</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13457</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22942</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14118</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23137</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14239</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22951</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14529</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24926</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15330</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25705</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16529</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24384</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15922</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24443</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16382</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24616</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16531</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="24"/>
     <row r="25"/>
   </sheetData>

--- a/station_load_graph.xlsx
+++ b/station_load_graph.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20723</v>
+        <v>21411</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13745</v>
+        <v>15101</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>19860</v>
+        <v>20129</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12969</v>
+        <v>16805</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>19350</v>
+        <v>19411</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12554</v>
+        <v>13921</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18643</v>
+        <v>18935</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>11996</v>
+        <v>12798</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18281</v>
+        <v>19788</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8158</v>
+        <v>12705</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18124</v>
+        <v>20486</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11818</v>
+        <v>18799</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17748</v>
+        <v>19882</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11568</v>
+        <v>17886</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18394</v>
+        <v>22568</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11735</v>
+        <v>14765</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20038</v>
+        <v>26861</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12362</v>
+        <v>17041</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20363</v>
+        <v>30306</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>12258</v>
+        <v>18281</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20777</v>
+        <v>30683</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12410</v>
+        <v>18413</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20382</v>
+        <v>31764</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12615</v>
+        <v>18730</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -816,296 +816,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21520</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13127</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>22336</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13457</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>22942</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14118</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>23137</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>14239</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>22951</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14529</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>24926</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15330</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>25705</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16529</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>24384</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15922</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>24443</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>16382</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>24616</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16531</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24"/>
     <row r="25"/>
   </sheetData>
